--- a/Technology/Software/Snowflake.xlsx
+++ b/Technology/Software/Snowflake.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E359A83E-92A8-8544-AB0E-66543BF1563A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A28EA7E-CF76-F541-B13A-257903171161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2228,11 +2228,11 @@
     <v>Powered by Refinitiv</v>
     <v>205.66</v>
     <v>110.265</v>
-    <v>1.583</v>
-    <v>2.4700000000000002</v>
-    <v>1.7306999999999999E-2</v>
-    <v>-0.04</v>
-    <v>-2.7550000000000003E-4</v>
+    <v>1.571</v>
+    <v>-7.48</v>
+    <v>-4.0583999999999995E-2</v>
+    <v>-0.32</v>
+    <v>-1.81E-3</v>
     <v>USD</v>
     <v>Snowflake Inc. is a Data Cloud company. The Company’s platform is the technology that powers the Data Cloud, enabling customers to consolidate data into a single source of truth to drive meaningful business insights, build data applications, and share data and data products. Its platform unifies data and supports a variety of workloads, including data warehousing, data lakes, and Unistore, as well as collaboration, data engineering, cybersecurity, data science and machine learning, and application development. The Company has developed technology across its platform, including managed service, storage, query capabilities, compute model, data sharing, global infrastructure, and integrated security. The Company also provides frictionless and governed data access so users can securely share data inside and outside of their organizations, generally without copying or moving the underlying data.</v>
     <v>5884</v>
@@ -2240,24 +2240,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>106 East Babcock Street, Suite 3A, BOZEMAN, MT, 59715 US</v>
-    <v>146.80000000000001</v>
+    <v>182.46</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.999829131251</v>
+    <v>45065.955420937498</v>
     <v>0</v>
-    <v>143.52000000000001</v>
-    <v>47186750000</v>
+    <v>175.71</v>
+    <v>57469750000</v>
     <v>SNOWFLAKE INC.</v>
     <v>SNOWFLAKE INC.</v>
-    <v>144.07</v>
-    <v>142.72</v>
-    <v>145.19</v>
-    <v>145.15</v>
+    <v>181.18</v>
+    <v>184.31</v>
+    <v>176.83</v>
+    <v>176.5</v>
     <v>325000000</v>
     <v>SNOW</v>
     <v>SNOWFLAKE INC. (XNYS:SNOW)</v>
-    <v>3672166</v>
-    <v>4996156</v>
+    <v>6703537</v>
+    <v>4677993</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2419,9 +2419,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2841,10 +2841,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3401,15 +3401,15 @@
       </c>
       <c r="M16" s="31">
         <f>N101/F3</f>
-        <v>22.843436404556609</v>
+        <v>27.821508777586232</v>
       </c>
       <c r="N16" s="31">
         <f>N101/F28</f>
-        <v>-59.227380272497349</v>
+        <v>-72.13429060944766</v>
       </c>
       <c r="O16" s="32">
         <f>N101/F106</f>
-        <v>95.038962817649178</v>
+        <v>115.74998136954959</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="N95" s="58" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>1.583</v>
+        <v>1.571</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="N97" s="37">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.10909815</v>
+        <v>0.10858155000000001</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="N100" s="35">
         <f>N99/N103</f>
-        <v>5.3049419365000612E-3</v>
+        <v>4.3598728568783355E-3</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="N101" s="39" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>47186750000</v>
+        <v>57469750000</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="N102" s="35">
         <f>N101/N103</f>
-        <v>0.99469505806349989</v>
+        <v>0.99564012714312167</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="N103" s="40">
         <f>N99+N101</f>
-        <v>47438408000</v>
+        <v>57721408000</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="N105" s="27">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.11011114040057052</v>
+        <v>0.1094163296790603</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5430,7 +5430,7 @@
       <c r="J107" s="41"/>
       <c r="K107" s="44">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>28159934990.63287</v>
+        <v>28391712714.479778</v>
       </c>
       <c r="L107" s="45" t="s">
         <v>147</v>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="K108" s="44">
         <f>K107+K106</f>
-        <v>30498202483.958424</v>
+        <v>30729980207.805332</v>
       </c>
       <c r="L108" s="45" t="s">
         <v>143</v>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="N108" s="49">
         <f>N105</f>
-        <v>0.11011114040057052</v>
+        <v>0.1094163296790603</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="H110" s="39">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>21497674680.285358</v>
+        <v>21698185476.700291</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5513,7 +5513,7 @@
       </c>
       <c r="H113" s="39">
         <f>H110+H111-H112</f>
-        <v>25253884680.285358</v>
+        <v>25454395476.700291</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="H115" s="59">
         <f>H113/H114</f>
-        <v>77.704260554724186</v>
+        <v>78.321216851385515</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="H116" s="57" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>145.19</v>
+        <v>176.83</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="H117" s="54">
         <f>H115/H116-1</f>
-        <v>-0.46480983156743449</v>
+        <v>-0.55708184781210479</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Snowflake.xlsx
+++ b/Technology/Software/Snowflake.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A28EA7E-CF76-F541-B13A-257903171161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DA95C5-AF9E-FB4C-8B00-F2F740645AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -549,7 +549,10 @@
     <t>Share Dilution (4yr)</t>
   </si>
   <si>
-    <t>Shares (No dilution)</t>
+    <t>Shares (5% dilution)</t>
+  </si>
+  <si>
+    <t>FCF CAGR Forecast</t>
   </si>
 </sst>
 </file>
@@ -893,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1012,6 +1015,12 @@
     <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2228,11 +2237,11 @@
     <v>Powered by Refinitiv</v>
     <v>205.66</v>
     <v>110.265</v>
-    <v>1.571</v>
-    <v>-7.48</v>
-    <v>-4.0583999999999995E-2</v>
-    <v>-0.32</v>
-    <v>-1.81E-3</v>
+    <v>1.5760000000000001</v>
+    <v>2.1</v>
+    <v>1.4197999999999999E-2</v>
+    <v>-0.11</v>
+    <v>-7.333000000000001E-4</v>
     <v>USD</v>
     <v>Snowflake Inc. is a Data Cloud company. The Company’s platform is the technology that powers the Data Cloud, enabling customers to consolidate data into a single source of truth to drive meaningful business insights, build data applications, and share data and data products. Its platform unifies data and supports a variety of workloads, including data warehousing, data lakes, and Unistore, as well as collaboration, data engineering, cybersecurity, data science and machine learning, and application development. The Company has developed technology across its platform, including managed service, storage, query capabilities, compute model, data sharing, global infrastructure, and integrated security. The Company also provides frictionless and governed data access so users can securely share data inside and outside of their organizations, generally without copying or moving the underlying data.</v>
     <v>5884</v>
@@ -2240,24 +2249,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>106 East Babcock Street, Suite 3A, BOZEMAN, MT, 59715 US</v>
-    <v>182.46</v>
+    <v>152.9</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45065.955420937498</v>
+    <v>45072.99993927031</v>
     <v>0</v>
-    <v>175.71</v>
-    <v>57469750000</v>
+    <v>144.82499999999999</v>
+    <v>48890390000</v>
     <v>SNOWFLAKE INC.</v>
     <v>SNOWFLAKE INC.</v>
-    <v>181.18</v>
-    <v>184.31</v>
-    <v>176.83</v>
-    <v>176.5</v>
-    <v>325000000</v>
+    <v>146.86000000000001</v>
+    <v>147.91</v>
+    <v>150.01</v>
+    <v>149.9</v>
+    <v>325914200</v>
     <v>SNOW</v>
     <v>SNOWFLAKE INC. (XNYS:SNOW)</v>
-    <v>6703537</v>
-    <v>4677993</v>
+    <v>11512197</v>
+    <v>5891287</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2419,9 +2428,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2841,10 +2850,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H99" sqref="H99"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3401,15 +3410,15 @@
       </c>
       <c r="M16" s="31">
         <f>N101/F3</f>
-        <v>27.821508777586232</v>
+        <v>23.668180469283651</v>
       </c>
       <c r="N16" s="31">
         <f>N101/F28</f>
-        <v>-72.13429060944766</v>
+        <v>-61.365737631871269</v>
       </c>
       <c r="O16" s="32">
         <f>N101/F106</f>
-        <v>115.74998136954959</v>
+        <v>98.470268822293704</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4769,10 +4778,10 @@
       <c r="F83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M83" s="62" t="s">
+      <c r="M83" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="N83" s="63"/>
+      <c r="N83" s="67"/>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4793,10 +4802,10 @@
       <c r="F84" s="1">
         <v>8024000</v>
       </c>
-      <c r="M84" s="64" t="s">
+      <c r="M84" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="N84" s="65"/>
+      <c r="N84" s="69"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5038,10 +5047,10 @@
       <c r="F93" s="1">
         <v>-71147000</v>
       </c>
-      <c r="M93" s="64" t="s">
+      <c r="M93" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="N93" s="65"/>
+      <c r="N93" s="69"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5093,7 +5102,7 @@
       </c>
       <c r="N95" s="58" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>1.571</v>
+        <v>1.5760000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5146,7 +5155,7 @@
       </c>
       <c r="N97" s="37">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.10858155000000001</v>
+        <v>0.10879680000000001</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5168,10 +5177,10 @@
       <c r="F98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M98" s="64" t="s">
+      <c r="M98" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="N98" s="65"/>
+      <c r="N98" s="69"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5224,7 +5233,7 @@
       </c>
       <c r="N100" s="35">
         <f>N99/N103</f>
-        <v>4.3598728568783355E-3</v>
+        <v>5.1210319928058348E-3</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5251,7 +5260,7 @@
       </c>
       <c r="N101" s="39" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>57469750000</v>
+        <v>48890390000</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5278,7 +5287,7 @@
       </c>
       <c r="N102" s="35">
         <f>N101/N103</f>
-        <v>0.99564012714312167</v>
+        <v>0.99487896800719422</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5300,15 +5309,18 @@
       <c r="F103" s="1">
         <v>1102534000</v>
       </c>
+      <c r="L103" s="62" t="s">
+        <v>160</v>
+      </c>
       <c r="M103" s="36" t="s">
         <v>143</v>
       </c>
       <c r="N103" s="40">
         <f>N99+N101</f>
-        <v>57721408000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+        <v>49142048000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -5327,10 +5339,34 @@
       <c r="F104" s="11">
         <v>956731000</v>
       </c>
-      <c r="M104" s="64" t="s">
+      <c r="G104" s="61">
+        <f>(G105/F106)-1</f>
+        <v>4.9548941689711468E-2</v>
+      </c>
+      <c r="H104" s="61">
+        <f>(H105/G105)-1</f>
+        <v>0.45557474573018619</v>
+      </c>
+      <c r="I104" s="61">
+        <f>(I105/H105)-1</f>
+        <v>0.43836519446275535</v>
+      </c>
+      <c r="J104" s="61">
+        <f>(J105/I105)-1</f>
+        <v>0.62694775435380379</v>
+      </c>
+      <c r="K104" s="61">
+        <f>(K105/J105)-1</f>
+        <v>0.37633802816901407</v>
+      </c>
+      <c r="L104" s="16">
+        <f>SUM(G104:K104)/5</f>
+        <v>0.38935493288109418</v>
+      </c>
+      <c r="M104" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="N104" s="65"/>
+      <c r="N104" s="69"/>
     </row>
     <row r="105" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5353,18 +5389,28 @@
         <f>(F106/E106)-1</f>
         <v>7.7331844086399784</v>
       </c>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
+      <c r="G105" s="60">
+        <v>521100000</v>
+      </c>
+      <c r="H105" s="60">
+        <v>758500000</v>
+      </c>
+      <c r="I105" s="60">
+        <v>1091000000</v>
+      </c>
+      <c r="J105" s="60">
+        <v>1775000000</v>
+      </c>
+      <c r="K105" s="60">
+        <v>2443000000</v>
+      </c>
       <c r="L105" s="15"/>
       <c r="M105" s="26" t="s">
         <v>108</v>
       </c>
       <c r="N105" s="27">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.1094163296790603</v>
+        <v>0.10977621561289121</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5428,9 +5474,9 @@
       <c r="H107" s="41"/>
       <c r="I107" s="41"/>
       <c r="J107" s="41"/>
-      <c r="K107" s="44">
-        <f>K106*(1+N107)/(N108-N107)</f>
-        <v>28391712714.479778</v>
+      <c r="K107" s="63">
+        <f>K105*(1+N107)/(N108-N107)</f>
+        <v>29537470880.207897</v>
       </c>
       <c r="L107" s="45" t="s">
         <v>147</v>
@@ -5459,9 +5505,9 @@
         <f>J107+J106</f>
         <v>1715137842.8441567</v>
       </c>
-      <c r="K108" s="44">
-        <f>K107+K106</f>
-        <v>30729980207.805332</v>
+      <c r="K108" s="63">
+        <f>K107+K105</f>
+        <v>31980470880.207897</v>
       </c>
       <c r="L108" s="45" t="s">
         <v>143</v>
@@ -5471,14 +5517,14 @@
       </c>
       <c r="N108" s="49">
         <f>N105</f>
-        <v>0.1094163296790603</v>
+        <v>0.10977621561289121</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="60" t="s">
+      <c r="G109" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="H109" s="61"/>
+      <c r="H109" s="65"/>
     </row>
     <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="G110" s="50" t="s">
@@ -5486,7 +5532,7 @@
       </c>
       <c r="H110" s="39">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>21698185476.700291</v>
+        <v>22408363008.396946</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5513,16 +5559,16 @@
       </c>
       <c r="H113" s="39">
         <f>H110+H111-H112</f>
-        <v>25454395476.700291</v>
+        <v>26164573008.396946</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
       <c r="G114" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="H114" s="51" cm="1">
-        <f t="array" ref="H114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>325000000</v>
+      <c r="H114" s="51">
+        <f>F34*(1+(5*0.05))</f>
+        <v>398412500</v>
       </c>
     </row>
     <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5531,7 +5577,7 @@
       </c>
       <c r="H115" s="59">
         <f>H113/H114</f>
-        <v>78.321216851385515</v>
+        <v>65.67206854302249</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5540,7 +5586,7 @@
       </c>
       <c r="H116" s="57" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>176.83</v>
+        <v>150.01</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5549,7 +5595,7 @@
       </c>
       <c r="H117" s="54">
         <f>H115/H116-1</f>
-        <v>-0.55708184781210479</v>
+        <v>-0.56221539535349319</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Snowflake.xlsx
+++ b/Technology/Software/Snowflake.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DA95C5-AF9E-FB4C-8B00-F2F740645AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3434981-B3E0-DE45-B005-31B9D2D4B6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="165">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -549,22 +543,44 @@
     <t>Share Dilution (4yr)</t>
   </si>
   <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
     <t>Shares (5% dilution)</t>
-  </si>
-  <si>
-    <t>FCF CAGR Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -727,7 +743,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -891,12 +907,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -954,12 +979,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,7 +1000,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1016,11 +1034,24 @@
     <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1296,11 +1327,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1340,7 +1371,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$F$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$F$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2081,13 +2112,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>174624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2113,6 +2144,66 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7229999999999999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2236,12 +2327,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>205.66</v>
-    <v>110.265</v>
-    <v>1.5760000000000001</v>
-    <v>2.1</v>
-    <v>1.4197999999999999E-2</v>
-    <v>-0.11</v>
-    <v>-7.333000000000001E-4</v>
+    <v>119.27</v>
+    <v>1.61</v>
+    <v>5.21</v>
+    <v>3.0047999999999998E-2</v>
     <v>USD</v>
     <v>Snowflake Inc. is a Data Cloud company. The Company’s platform is the technology that powers the Data Cloud, enabling customers to consolidate data into a single source of truth to drive meaningful business insights, build data applications, and share data and data products. Its platform unifies data and supports a variety of workloads, including data warehousing, data lakes, and Unistore, as well as collaboration, data engineering, cybersecurity, data science and machine learning, and application development. The Company has developed technology across its platform, including managed service, storage, query capabilities, compute model, data sharing, global infrastructure, and integrated security. The Company also provides frictionless and governed data access so users can securely share data inside and outside of their organizations, generally without copying or moving the underlying data.</v>
     <v>5884</v>
@@ -2249,24 +2338,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>106 East Babcock Street, Suite 3A, BOZEMAN, MT, 59715 US</v>
-    <v>152.9</v>
+    <v>179.74</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.99993927031</v>
+    <v>45099.999929918748</v>
     <v>0</v>
-    <v>144.82499999999999</v>
-    <v>48890390000</v>
+    <v>170.82</v>
+    <v>58208276120</v>
     <v>SNOWFLAKE INC.</v>
     <v>SNOWFLAKE INC.</v>
-    <v>146.86000000000001</v>
-    <v>147.91</v>
-    <v>150.01</v>
-    <v>149.9</v>
+    <v>171.18</v>
+    <v>173.39</v>
+    <v>178.6</v>
     <v>325914200</v>
     <v>SNOW</v>
     <v>SNOWFLAKE INC. (XNYS:SNOW)</v>
-    <v>11512197</v>
-    <v>5891287</v>
+    <v>5048</v>
+    <v>7615765</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2298,8 +2386,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2319,7 +2405,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2336,7 +2421,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2347,16 +2432,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2420,19 +2502,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2476,9 +2552,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2486,9 +2559,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2850,10 +2920,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2903,28 +2973,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -2953,36 +3023,36 @@
         <v>2065659000</v>
       </c>
       <c r="G3" s="29">
-        <v>2877000000</v>
+        <v>2753000000</v>
       </c>
       <c r="H3" s="29">
-        <v>3926000000</v>
+        <v>3642000000</v>
       </c>
       <c r="I3" s="29">
-        <v>5332000000</v>
+        <v>4816000000</v>
       </c>
       <c r="J3" s="29">
-        <v>7544000000</v>
+        <v>6664000000</v>
       </c>
       <c r="K3" s="29">
-        <v>9703000000</v>
+        <v>8609000000</v>
       </c>
       <c r="L3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="O3" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="O3" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3003,23 +3073,23 @@
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.39277586474824733</v>
+        <v>0.3327465956384863</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.36461591936044502</v>
+        <v>0.3229204504177261</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.35812531839021911</v>
+        <v>0.32235035694673253</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.4148537134283572</v>
+        <v>0.38372093023255816</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.28618769883351014</v>
+        <v>0.29186674669867951</v>
       </c>
       <c r="L4" s="17">
         <f>(F4+E4+D4)/3</f>
@@ -3034,7 +3104,7 @@
         <v>0.32658024734885066</v>
       </c>
       <c r="O4" s="17">
-        <f>(F105+E105+D105)/3</f>
+        <f>(F106+E106+D106)/3</f>
         <v>1.867053429206335</v>
       </c>
       <c r="T4" s="16"/>
@@ -3095,16 +3165,16 @@
         <v>1348119000</v>
       </c>
       <c r="L6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="O6" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3139,7 +3209,7 @@
         <v>-0.38569999999999999</v>
       </c>
       <c r="O7" s="21">
-        <f>F106/F3</f>
+        <f>F107/F3</f>
         <v>0.24035864583651029</v>
       </c>
     </row>
@@ -3165,7 +3235,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3190,16 +3260,16 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="L9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="O9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3278,21 +3348,21 @@
         <v>1402328000</v>
       </c>
       <c r="L12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="O12" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3338,19 +3408,19 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -3373,16 +3443,16 @@
         <v>2190386000</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M15" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" s="20" t="s">
         <v>121</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3408,31 +3478,31 @@
         <f>(F35+E35+D35+C35)/4</f>
         <v>0.20264518659597172</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="65">
         <f>N101/F3</f>
-        <v>23.668180469283651</v>
-      </c>
-      <c r="N16" s="31">
+        <v>28.179034448570651</v>
+      </c>
+      <c r="N16" s="65">
         <f>N101/F28</f>
-        <v>-61.365737631871269</v>
-      </c>
-      <c r="O16" s="32">
-        <f>N101/F106</f>
-        <v>98.470268822293704</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>-73.061266240327342</v>
+      </c>
+      <c r="O16" s="66">
+        <f>N101/F107</f>
+        <v>117.23744885689598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1">
         <v>9129000</v>
@@ -3441,7 +3511,7 @@
         <v>73839000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3461,10 +3531,19 @@
         <v>67032000</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3483,14 +3562,41 @@
       <c r="F19" s="10">
         <v>-711206000</v>
       </c>
-      <c r="L19" s="33">
+      <c r="G19" s="60">
+        <v>238500000</v>
+      </c>
+      <c r="H19" s="60">
+        <v>401200000</v>
+      </c>
+      <c r="I19" s="60">
+        <v>638300000</v>
+      </c>
+      <c r="J19" s="60">
+        <v>1006000000</v>
+      </c>
+      <c r="K19" s="60">
+        <v>1742000000</v>
+      </c>
+      <c r="L19" s="31">
         <f>F40-F56-F61</f>
         <v>3756210000</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="65">
+        <f>N101/G3</f>
+        <v>21.14358013803124</v>
+      </c>
+      <c r="N19" s="65">
+        <f>N101/G28</f>
+        <v>273.0219330206379</v>
+      </c>
+      <c r="O19" s="66">
+        <f>N101/G105</f>
+        <v>-229.15367661183376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3509,8 +3615,28 @@
         <f t="shared" ref="F20" si="3">(F19/E19)-1</f>
         <v>0.10037086145995944</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G20" s="16">
+        <f t="shared" ref="G20" si="4">(G19/F19)-1</f>
+        <v>-1.3353458772844999</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" ref="H20" si="5">(H19/G19)-1</f>
+        <v>0.68218029350104814</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" ref="I20" si="6">(I19/H19)-1</f>
+        <v>0.59097706879361911</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" ref="J20" si="7">(J19/I19)-1</f>
+        <v>0.5760614131286228</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" ref="K20" si="8">(K19/J19)-1</f>
+        <v>0.73161033797216701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3529,8 +3655,28 @@
       <c r="F21" s="2">
         <v>-0.34429999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G21" s="61">
+        <f>G19/G3</f>
+        <v>8.6632764257173991E-2</v>
+      </c>
+      <c r="H21" s="61">
+        <f t="shared" ref="H21:K21" si="9">H19/H3</f>
+        <v>0.1101592531576057</v>
+      </c>
+      <c r="I21" s="61">
+        <f t="shared" si="9"/>
+        <v>0.1325373754152824</v>
+      </c>
+      <c r="J21" s="61">
+        <f t="shared" si="9"/>
+        <v>0.15096038415366148</v>
+      </c>
+      <c r="K21" s="61">
+        <f t="shared" si="9"/>
+        <v>0.20234638169357649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3550,7 +3696,7 @@
         <v>-842267000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3570,7 +3716,7 @@
         <v>-0.40770000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3590,7 +3736,7 @@
         <v>26274000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3610,7 +3756,7 @@
         <v>-815993000</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3630,7 +3776,7 @@
         <v>-0.39500000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3650,7 +3796,7 @@
         <v>18467000</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3669,10 +3815,25 @@
       <c r="F28" s="11">
         <v>-796705000</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="62">
+        <v>213200000</v>
+      </c>
+      <c r="H28" s="62">
+        <v>335200000</v>
+      </c>
+      <c r="I28" s="62">
+        <v>562600000</v>
+      </c>
+      <c r="J28" s="62">
+        <v>777000000</v>
+      </c>
+      <c r="K28" s="62">
+        <v>1233000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -3688,11 +3849,31 @@
         <v>0.26126039228198006</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29" si="10">(F28/E28)-1</f>
         <v>0.17171460170483632</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G29" s="16">
+        <f t="shared" ref="G29" si="11">(G28/F28)-1</f>
+        <v>-1.2676021865056701</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" ref="H29" si="12">(H28/G28)-1</f>
+        <v>0.57223264540337704</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" ref="I29" si="13">(I28/H28)-1</f>
+        <v>0.67840095465393802</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" ref="J29" si="14">(J28/I28)-1</f>
+        <v>0.38108780661215791</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" ref="K29" si="15">(K28/J28)-1</f>
+        <v>0.58687258687258681</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -3711,8 +3892,28 @@
       <c r="F30" s="2">
         <v>-0.38569999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G30" s="63">
+        <f>G28/G3</f>
+        <v>7.7442789683981106E-2</v>
+      </c>
+      <c r="H30" s="63">
+        <f t="shared" ref="H30:K30" si="16">H28/H3</f>
+        <v>9.2037342119714441E-2</v>
+      </c>
+      <c r="I30" s="63">
+        <f t="shared" si="16"/>
+        <v>0.11681893687707641</v>
+      </c>
+      <c r="J30" s="63">
+        <f t="shared" si="16"/>
+        <v>0.11659663865546219</v>
+      </c>
+      <c r="K30" s="63">
+        <f t="shared" si="16"/>
+        <v>0.14322220931583227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -3731,8 +3932,23 @@
       <c r="F31" s="12">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="G31" s="64">
+        <v>0.65</v>
+      </c>
+      <c r="H31" s="64">
+        <v>1.03</v>
+      </c>
+      <c r="I31" s="64">
+        <v>1.73</v>
+      </c>
+      <c r="J31" s="64">
+        <v>2.38</v>
+      </c>
+      <c r="K31" s="64">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -3794,7 +4010,7 @@
     </row>
     <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -3802,15 +4018,15 @@
         <v>-0.10086054799308096</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:F35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:F35" si="17">(D34-C34)/C34</f>
         <v>-0.33926703650485202</v>
       </c>
       <c r="E35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F35" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.2507083308818199</v>
       </c>
     </row>
@@ -3819,19 +4035,19 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -3839,19 +4055,19 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -3939,19 +4155,19 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4019,7 +4235,7 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1">
         <v>7049000</v>
@@ -4079,7 +4295,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1">
         <v>23532000</v>
@@ -4099,19 +4315,19 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4159,19 +4375,19 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4219,10 +4435,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1">
         <v>19650000</v>
@@ -4239,10 +4455,10 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1">
         <v>4498000</v>
@@ -4251,7 +4467,7 @@
         <v>12709000</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4319,10 +4535,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1">
         <v>184887000</v>
@@ -4359,19 +4575,19 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4391,7 +4607,7 @@
         <v>11184000</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4419,19 +4635,19 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4471,7 +4687,7 @@
         <v>31000</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4511,7 +4727,7 @@
         <v>-16286000</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4579,19 +4795,19 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -4599,19 +4815,19 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4659,16 +4875,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>-26425000</v>
@@ -4696,26 +4912,26 @@
     </row>
     <row r="80" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:F80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:F80" si="18">B79/B3</f>
         <v>0.23181884012993192</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.29612688292262829</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.50914873599989185</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.49625326102021855</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.41707416374145007</v>
       </c>
     </row>
@@ -4764,24 +4980,24 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M83" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="N83" s="67"/>
+        <v>91</v>
+      </c>
+      <c r="M83" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="N83" s="71"/>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4802,10 +5018,10 @@
       <c r="F84" s="1">
         <v>8024000</v>
       </c>
-      <c r="M84" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="N84" s="69"/>
+      <c r="M84" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="N84" s="73"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4824,10 +5040,10 @@
         <v>430344000</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N85" s="25">
         <f>F17</f>
@@ -4851,10 +5067,10 @@
         <v>95107000</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M86" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N86" s="25">
         <f>F56</f>
@@ -4881,7 +5097,7 @@
         <v>545639000</v>
       </c>
       <c r="M87" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N87" s="25">
         <f>F61</f>
@@ -4907,40 +5123,40 @@
       <c r="F88" s="1">
         <v>-25128000</v>
       </c>
-      <c r="M88" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="N88" s="35">
+      <c r="M88" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="N88" s="33">
         <f>N85/(N86+N87)</f>
         <v>0.29341010418901842</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:F89" si="19">(-1*B88)/B3</f>
+        <v>4.1545114104235205E-2</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="19"/>
+        <v>8.6300935228972461E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="19"/>
+        <v>5.9179223341311274E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="19"/>
+        <v>1.3303240230061337E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="19"/>
+        <v>1.2164640920887716E-2</v>
+      </c>
+      <c r="M89" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:F89" si="7">(-1*B88)/B3</f>
-        <v>4.1545114104235205E-2</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.6300935228972461E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.9179223341311274E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.3303240230061337E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.2164640920887716E-2</v>
-      </c>
-      <c r="M89" s="24" t="s">
-        <v>106</v>
       </c>
       <c r="N89" s="25">
         <f>F27</f>
@@ -4952,16 +5168,16 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1">
         <v>-6035000</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1">
         <v>-362609000</v>
@@ -4993,10 +5209,10 @@
       <c r="F91" s="1">
         <v>-3854886000</v>
       </c>
-      <c r="M91" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="N91" s="35">
+      <c r="M91" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="N91" s="33">
         <f>N89/N90</f>
         <v>-2.263132159221954E-2</v>
       </c>
@@ -5020,10 +5236,10 @@
       <c r="F92" s="1">
         <v>3715885000</v>
       </c>
-      <c r="M92" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="N92" s="37">
+      <c r="M92" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="N92" s="35">
         <f>N88*(1-N91)</f>
         <v>0.30005036261532675</v>
       </c>
@@ -5033,7 +5249,7 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1">
         <v>-6314000</v>
@@ -5047,10 +5263,10 @@
       <c r="F93" s="1">
         <v>-71147000</v>
       </c>
-      <c r="M93" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="N93" s="69"/>
+      <c r="M93" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="N93" s="73"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5072,10 +5288,11 @@
         <v>-597885000</v>
       </c>
       <c r="M94" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="N94" s="38">
-        <v>4.095E-2</v>
+        <v>132</v>
+      </c>
+      <c r="N94" s="36">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5083,26 +5300,26 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="N95" s="58" cm="1">
+        <v>133</v>
+      </c>
+      <c r="N95" s="55" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>1.5760000000000001</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5110,24 +5327,24 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1">
         <v>4242284000</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="N96" s="38">
+        <v>134</v>
+      </c>
+      <c r="N96" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5139,23 +5356,23 @@
         <v>-29644000</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M97" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="N97" s="37">
+        <v>91</v>
+      </c>
+      <c r="M97" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="N97" s="35">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.10879680000000001</v>
+        <v>0.11252970000000001</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5163,24 +5380,24 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M98" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="N98" s="69"/>
+        <v>91</v>
+      </c>
+      <c r="M98" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="N98" s="73"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5202,7 +5419,7 @@
         <v>-92624000</v>
       </c>
       <c r="M99" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N99" s="25">
         <f>N86+N87</f>
@@ -5228,12 +5445,12 @@
       <c r="F100" s="10">
         <v>-92624000</v>
       </c>
-      <c r="M100" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="N100" s="35">
+      <c r="M100" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="N100" s="33">
         <f>N99/N103</f>
-        <v>5.1210319928058348E-3</v>
+        <v>4.304794450904181E-3</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5241,10 +5458,10 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1">
         <v>-11000</v>
@@ -5256,11 +5473,11 @@
         <v>-933000</v>
       </c>
       <c r="M101" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="N101" s="39" cm="1">
+        <v>139</v>
+      </c>
+      <c r="N101" s="37" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>48890390000</v>
+        <v>58208276120</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5282,12 +5499,12 @@
       <c r="F102" s="10">
         <v>-145803000</v>
       </c>
-      <c r="M102" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="N102" s="35">
+      <c r="M102" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="N102" s="33">
         <f>N101/N103</f>
-        <v>0.99487896800719422</v>
+        <v>0.99569520554909585</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5309,15 +5526,13 @@
       <c r="F103" s="1">
         <v>1102534000</v>
       </c>
-      <c r="L103" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="M103" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="N103" s="40">
+      <c r="L103" s="58"/>
+      <c r="M103" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="N103" s="38">
         <f>N99+N101</f>
-        <v>49142048000</v>
+        <v>58459934120</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5339,270 +5554,271 @@
       <c r="F104" s="11">
         <v>956731000</v>
       </c>
-      <c r="G104" s="61">
-        <f>(G105/F106)-1</f>
-        <v>4.9548941689711468E-2</v>
-      </c>
-      <c r="H104" s="61">
-        <f>(H105/G105)-1</f>
-        <v>0.45557474573018619</v>
-      </c>
-      <c r="I104" s="61">
-        <f>(I105/H105)-1</f>
-        <v>0.43836519446275535</v>
-      </c>
-      <c r="J104" s="61">
-        <f>(J105/I105)-1</f>
-        <v>0.62694775435380379</v>
-      </c>
-      <c r="K104" s="61">
-        <f>(K105/J105)-1</f>
-        <v>0.37633802816901407</v>
-      </c>
-      <c r="L104" s="16">
-        <f>SUM(G104:K104)/5</f>
-        <v>0.38935493288109418</v>
-      </c>
-      <c r="M104" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="N104" s="69"/>
-    </row>
-    <row r="105" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="N104" s="73"/>
+    </row>
+    <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>0.34735604535196418</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>-0.5279931396246853</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>-1.6040309813962876</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>7.7331844086399784</v>
-      </c>
-      <c r="G105" s="60">
-        <v>521100000</v>
-      </c>
-      <c r="H105" s="60">
-        <v>758500000</v>
-      </c>
-      <c r="I105" s="60">
-        <v>1091000000</v>
-      </c>
-      <c r="J105" s="60">
-        <v>1775000000</v>
-      </c>
-      <c r="K105" s="60">
-        <v>2443000000</v>
-      </c>
-      <c r="L105" s="15"/>
+        <v>159</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:E105" si="20">(B22*(1-0.2))+B77+B88+B81</f>
+        <v>-144807000</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="20"/>
+        <v>-256455400</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="20"/>
+        <v>-353468600</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="20"/>
+        <v>-498324800</v>
+      </c>
+      <c r="F105" s="1">
+        <f>(F22*(1-0.2))+F77+F88+F81</f>
+        <v>-190884600</v>
+      </c>
+      <c r="G105" s="53">
+        <f>F105*(1+$N$106)</f>
+        <v>-254014148.84824091</v>
+      </c>
+      <c r="H105" s="53">
+        <f t="shared" ref="H105:K105" si="21">G105*(1+$N$106)</f>
+        <v>-338021966.23036265</v>
+      </c>
+      <c r="I105" s="53">
+        <f t="shared" si="21"/>
+        <v>-449812934.32793635</v>
+      </c>
+      <c r="J105" s="53">
+        <f t="shared" si="21"/>
+        <v>-598575524.97289169</v>
+      </c>
+      <c r="K105" s="53">
+        <f t="shared" si="21"/>
+        <v>-796537030.73678052</v>
+      </c>
+      <c r="L105" s="39" t="s">
+        <v>162</v>
+      </c>
       <c r="M105" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N105" s="27">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.10977621561289121</v>
+        <v>0.11333693790785634</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
+      <c r="A106" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
+        <v>0.34735604535196418</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>-0.5279931396246853</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>-1.6040309813962876</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>7.7331844086399784</v>
+      </c>
+      <c r="G106" s="57">
+        <v>520400000</v>
+      </c>
+      <c r="H106" s="57">
+        <v>751800000</v>
+      </c>
+      <c r="I106" s="57">
+        <v>1068000000</v>
+      </c>
+      <c r="J106" s="57">
+        <v>1717000000</v>
+      </c>
+      <c r="K106" s="57">
+        <v>2356000000</v>
+      </c>
+      <c r="L106" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="M106" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="N106" s="41">
+        <f>(SUM(G4:K4)/5)</f>
+        <v>0.33072101598683651</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" s="1">
         <v>-147998000</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C107" s="1">
         <v>-199406000</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D107" s="1">
         <v>-94121000</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E107" s="1">
         <v>56852000</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F107" s="1">
         <v>496499000</v>
       </c>
-      <c r="G106" s="56">
-        <f>F106*(1+$N$106)</f>
-        <v>676882897.20404243</v>
-      </c>
-      <c r="H106" s="56">
-        <f t="shared" ref="H106:K106" si="8">G106*(1+$N$106)</f>
-        <v>922802375.28643203</v>
-      </c>
-      <c r="I106" s="56">
-        <f t="shared" si="8"/>
-        <v>1258067277.7400401</v>
-      </c>
-      <c r="J106" s="56">
-        <f t="shared" si="8"/>
-        <v>1715137842.8441567</v>
-      </c>
-      <c r="K106" s="56">
-        <f t="shared" si="8"/>
-        <v>2338267493.3255544</v>
-      </c>
-      <c r="L106" s="41" t="s">
+      <c r="G107" s="39"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="39"/>
+      <c r="J107" s="39"/>
+      <c r="K107" s="59">
+        <f>K106*(1+N107)/(N108-N107)</f>
+        <v>27337375023.333565</v>
+      </c>
+      <c r="L107" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="M107" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="M106" s="42" t="s">
+      <c r="N107" s="44">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="G108" s="59">
+        <f t="shared" ref="G108:J108" si="22">G107+G106</f>
+        <v>520400000</v>
+      </c>
+      <c r="H108" s="59">
+        <f t="shared" si="22"/>
+        <v>751800000</v>
+      </c>
+      <c r="I108" s="59">
+        <f t="shared" si="22"/>
+        <v>1068000000</v>
+      </c>
+      <c r="J108" s="59">
+        <f t="shared" si="22"/>
+        <v>1717000000</v>
+      </c>
+      <c r="K108" s="59">
+        <f>K107+K106</f>
+        <v>29693375023.333565</v>
+      </c>
+      <c r="L108" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="M108" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="N106" s="43">
-        <f>(SUM(G4:K4)/5)</f>
-        <v>0.36331170295215576</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="41"/>
-      <c r="K107" s="63">
-        <f>K105*(1+N107)/(N108-N107)</f>
-        <v>29537470880.207897</v>
-      </c>
-      <c r="L107" s="45" t="s">
+      <c r="N108" s="46">
+        <f>N105</f>
+        <v>0.11333693790785634</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="G109" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="M107" s="46" t="s">
+      <c r="H109" s="69"/>
+    </row>
+    <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G110" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="N107" s="47">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G108" s="44">
-        <f t="shared" ref="G108:I108" si="9">G107+G106</f>
-        <v>676882897.20404243</v>
-      </c>
-      <c r="H108" s="44">
-        <f t="shared" si="9"/>
-        <v>922802375.28643203</v>
-      </c>
-      <c r="I108" s="44">
-        <f t="shared" si="9"/>
-        <v>1258067277.7400401</v>
-      </c>
-      <c r="J108" s="44">
-        <f>J107+J106</f>
-        <v>1715137842.8441567</v>
-      </c>
-      <c r="K108" s="63">
-        <f>K107+K105</f>
-        <v>31980470880.207897</v>
-      </c>
-      <c r="L108" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="M108" s="48" t="s">
+      <c r="H110" s="37">
+        <f>NPV(N108,G108,H108,I108,J108,K108)</f>
+        <v>20324473480.374424</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G111" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="N108" s="49">
-        <f>N105</f>
-        <v>0.10977621561289121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="H109" s="65"/>
-    </row>
-    <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G110" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="H110" s="39">
-        <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>22408363008.396946</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G111" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="H111" s="39">
+      <c r="H111" s="37">
         <f>F40</f>
         <v>4007868000</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G112" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="H112" s="39">
+      <c r="G112" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="H112" s="37">
         <f>N99</f>
         <v>251658000</v>
       </c>
     </row>
     <row r="113" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G113" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="H113" s="39">
+      <c r="G113" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="H113" s="37">
         <f>H110+H111-H112</f>
-        <v>26164573008.396946</v>
+        <v>24080683480.374424</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G114" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="H114" s="51">
+      <c r="G114" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="H114" s="48">
         <f>F34*(1+(5*0.05))</f>
         <v>398412500</v>
       </c>
     </row>
     <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G115" s="52" t="s">
+      <c r="G115" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="H115" s="56">
+        <f>H113/H114</f>
+        <v>60.441586246351264</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G116" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="H116" s="54" cm="1">
+        <f t="array" ref="H116">_FV(A1,"Price")</f>
+        <v>178.6</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G117" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="H117" s="51">
+        <f>H115/H116-1</f>
+        <v>-0.66158126401818995</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G118" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="H115" s="59">
-        <f>H113/H114</f>
-        <v>65.67206854302249</v>
-      </c>
-    </row>
-    <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G116" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="H116" s="57" cm="1">
-        <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>150.01</v>
-      </c>
-    </row>
-    <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G117" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="H117" s="54">
-        <f>H115/H116-1</f>
-        <v>-0.56221539535349319</v>
-      </c>
-    </row>
-    <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G118" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="H118" s="55" t="str">
+      <c r="H118" s="52" t="str">
         <f>IF(H115&gt;H116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -5629,8 +5845,9 @@
     <hyperlink ref="F36" r:id="rId10" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="F74" r:id="rId11" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="G1" r:id="rId12" display="https://finbox.com/NYSE:SNOW/explorer/revenue_proj" xr:uid="{FA4426A0-FAF6-4642-9E9F-62F1F6F87EC2}"/>
+    <hyperlink ref="L106" r:id="rId13" xr:uid="{62066282-E17A-134B-970B-FE2867700054}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
--- a/Technology/Software/Snowflake.xlsx
+++ b/Technology/Software/Snowflake.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3434981-B3E0-DE45-B005-31B9D2D4B6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5A74C2-306D-B642-8AC9-AD698A8ECB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -568,19 +568,26 @@
   </si>
   <si>
     <t>Shares (5% dilution)</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -921,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1069,6 +1076,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2164,12 +2177,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2186,14 +2200,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2201,6 +2215,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2329,8 +2344,10 @@
     <v>205.66</v>
     <v>119.27</v>
     <v>1.61</v>
-    <v>5.21</v>
-    <v>3.0047999999999998E-2</v>
+    <v>-8.4499999999999993</v>
+    <v>-4.7405000000000003E-2</v>
+    <v>0.31</v>
+    <v>1.825E-3</v>
     <v>USD</v>
     <v>Snowflake Inc. is a Data Cloud company. The Company’s platform is the technology that powers the Data Cloud, enabling customers to consolidate data into a single source of truth to drive meaningful business insights, build data applications, and share data and data products. Its platform unifies data and supports a variety of workloads, including data warehousing, data lakes, and Unistore, as well as collaboration, data engineering, cybersecurity, data science and machine learning, and application development. The Company has developed technology across its platform, including managed service, storage, query capabilities, compute model, data sharing, global infrastructure, and integrated security. The Company also provides frictionless and governed data access so users can securely share data inside and outside of their organizations, generally without copying or moving the underlying data.</v>
     <v>5884</v>
@@ -2338,23 +2355,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>106 East Babcock Street, Suite 3A, BOZEMAN, MT, 59715 US</v>
-    <v>179.74</v>
+    <v>183.39</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.999929918748</v>
+    <v>45103.936008321092</v>
     <v>0</v>
-    <v>170.82</v>
-    <v>58208276120</v>
+    <v>169.51</v>
+    <v>55340231160</v>
     <v>SNOWFLAKE INC.</v>
     <v>SNOWFLAKE INC.</v>
-    <v>171.18</v>
-    <v>173.39</v>
-    <v>178.6</v>
+    <v>180.59</v>
+    <v>178.25</v>
+    <v>169.8</v>
+    <v>170.15</v>
     <v>325914200</v>
     <v>SNOW</v>
     <v>SNOWFLAKE INC. (XNYS:SNOW)</v>
-    <v>5048</v>
-    <v>7615765</v>
+    <v>6899329</v>
+    <v>7760994</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2386,6 +2404,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2405,6 +2425,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2421,7 +2442,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2432,13 +2453,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2502,13 +2526,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2552,6 +2582,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2559,6 +2592,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2920,10 +2956,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E124" sqref="E124"/>
+      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3480,15 +3516,15 @@
       </c>
       <c r="M16" s="65">
         <f>N101/F3</f>
-        <v>28.179034448570651</v>
+        <v>26.790593781451829</v>
       </c>
       <c r="N16" s="65">
         <f>N101/F28</f>
-        <v>-73.061266240327342</v>
+        <v>-69.461383021319051</v>
       </c>
       <c r="O16" s="66">
         <f>N101/F107</f>
-        <v>117.23744885689598</v>
+        <v>111.46091162318554</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3583,15 +3619,15 @@
       </c>
       <c r="M19" s="65">
         <f>N101/G3</f>
-        <v>21.14358013803124</v>
+        <v>20.101791195059935</v>
       </c>
       <c r="N19" s="65">
         <f>N101/G28</f>
-        <v>273.0219330206379</v>
+        <v>259.56956454033769</v>
       </c>
       <c r="O19" s="66">
         <f>N101/G105</f>
-        <v>-229.15367661183376</v>
+        <v>-217.86278997026523</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3636,7 +3672,7 @@
         <v>0.73161033797216701</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3675,6 +3711,12 @@
         <f t="shared" si="9"/>
         <v>0.20234638169357649</v>
       </c>
+      <c r="N21" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="22" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -3694,6 +3736,14 @@
       </c>
       <c r="F22" s="10">
         <v>-842267000</v>
+      </c>
+      <c r="N22" s="74">
+        <f>(-1*F98)/N101</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="75">
+        <f>F107/N101</f>
+        <v>8.9717550793114546E-3</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5292,7 +5342,7 @@
       </c>
       <c r="N94" s="36">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5372,7 +5422,7 @@
       </c>
       <c r="N97" s="35">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.11252970000000001</v>
+        <v>0.11243210000000001</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5391,8 +5441,8 @@
       <c r="E98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>91</v>
+      <c r="F98" s="1">
+        <v>0</v>
       </c>
       <c r="M98" s="72" t="s">
         <v>136</v>
@@ -5450,7 +5500,7 @@
       </c>
       <c r="N100" s="33">
         <f>N99/N103</f>
-        <v>4.304794450904181E-3</v>
+        <v>4.5268833961677156E-3</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5477,7 +5527,7 @@
       </c>
       <c r="N101" s="37" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>58208276120</v>
+        <v>55340231160</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5504,7 +5554,7 @@
       </c>
       <c r="N102" s="33">
         <f>N101/N103</f>
-        <v>0.99569520554909585</v>
+        <v>0.99547311660383231</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5532,7 +5582,7 @@
       </c>
       <c r="N103" s="38">
         <f>N99+N101</f>
-        <v>58459934120</v>
+        <v>55591889160</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5617,7 +5667,7 @@
       </c>
       <c r="N105" s="27">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.11333693790785634</v>
+        <v>0.11328142599785117</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5692,7 +5742,7 @@
       <c r="J107" s="39"/>
       <c r="K107" s="59">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>27337375023.333565</v>
+        <v>27354564934.857086</v>
       </c>
       <c r="L107" s="42" t="s">
         <v>144</v>
@@ -5723,7 +5773,7 @@
       </c>
       <c r="K108" s="59">
         <f>K107+K106</f>
-        <v>29693375023.333565</v>
+        <v>29710564934.857086</v>
       </c>
       <c r="L108" s="42" t="s">
         <v>141</v>
@@ -5733,7 +5783,7 @@
       </c>
       <c r="N108" s="46">
         <f>N105</f>
-        <v>0.11333693790785634</v>
+        <v>0.11328142599785117</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5748,7 +5798,7 @@
       </c>
       <c r="H110" s="37">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>20324473480.374424</v>
+        <v>20339276216.881027</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5775,7 +5825,7 @@
       </c>
       <c r="H113" s="37">
         <f>H110+H111-H112</f>
-        <v>24080683480.374424</v>
+        <v>24095486216.881027</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5793,7 +5843,7 @@
       </c>
       <c r="H115" s="56">
         <f>H113/H114</f>
-        <v>60.441586246351264</v>
+        <v>60.478740543735519</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5802,7 +5852,7 @@
       </c>
       <c r="H116" s="54" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>178.6</v>
+        <v>169.8</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5811,7 +5861,7 @@
       </c>
       <c r="H117" s="51">
         <f>H115/H116-1</f>
-        <v>-0.66158126401818995</v>
+        <v>-0.64382367170944921</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Snowflake.xlsx
+++ b/Technology/Software/Snowflake.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5A74C2-306D-B642-8AC9-AD698A8ECB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD2D1FA-B7E7-2947-BF34-A0D90B322F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,7 +587,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -750,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -856,62 +856,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -928,7 +875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -973,84 +920,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1059,29 +952,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1133,11 +1061,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>SNOW</a:t>
+              <a:t>Snowflake</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42892047765552488"/>
+          <c:y val="2.5042686397268071E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1172,9 +1108,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.5814569536423829E-2"/>
-          <c:y val="0.1122254738078059"/>
+          <c:y val="0.12133190522499429"/>
           <c:w val="0.86385430463576174"/>
-          <c:h val="0.76513312329982652"/>
+          <c:h val="0.75602669188263816"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1477,6 +1413,7 @@
         <c:axId val="1861356575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-900000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2130,8 +2067,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>174624</xdr:rowOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2203,7 +2140,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2343,11 +2280,11 @@
     <v>Powered by Refinitiv</v>
     <v>205.66</v>
     <v>119.27</v>
-    <v>1.61</v>
-    <v>-8.4499999999999993</v>
-    <v>-4.7405000000000003E-2</v>
-    <v>0.31</v>
-    <v>1.825E-3</v>
+    <v>1.6120000000000001</v>
+    <v>0.21</v>
+    <v>1.1949999999999999E-3</v>
+    <v>-0.08</v>
+    <v>-4.5459999999999999E-4</v>
     <v>USD</v>
     <v>Snowflake Inc. is a Data Cloud company. The Company’s platform is the technology that powers the Data Cloud, enabling customers to consolidate data into a single source of truth to drive meaningful business insights, build data applications, and share data and data products. Its platform unifies data and supports a variety of workloads, including data warehousing, data lakes, and Unistore, as well as collaboration, data engineering, cybersecurity, data science and machine learning, and application development. The Company has developed technology across its platform, including managed service, storage, query capabilities, compute model, data sharing, global infrastructure, and integrated security. The Company also provides frictionless and governed data access so users can securely share data inside and outside of their organizations, generally without copying or moving the underlying data.</v>
     <v>5884</v>
@@ -2355,24 +2292,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>106 East Babcock Street, Suite 3A, BOZEMAN, MT, 59715 US</v>
-    <v>183.39</v>
+    <v>181.5</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45103.936008321092</v>
+    <v>45107.999853911722</v>
     <v>0</v>
-    <v>169.51</v>
-    <v>55340231160</v>
+    <v>175.75</v>
+    <v>57354380916</v>
     <v>SNOWFLAKE INC.</v>
     <v>SNOWFLAKE INC.</v>
-    <v>180.59</v>
-    <v>178.25</v>
-    <v>169.8</v>
-    <v>170.15</v>
+    <v>179.33</v>
+    <v>175.77</v>
+    <v>175.98</v>
+    <v>175.9</v>
     <v>325914200</v>
     <v>SNOW</v>
     <v>SNOWFLAKE INC. (XNYS:SNOW)</v>
-    <v>6899329</v>
-    <v>7760994</v>
+    <v>7345166</v>
+    <v>8417489</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2534,9 +2471,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2956,10 +2893,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M30" sqref="M30"/>
+      <selection pane="bottomRight" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2988,19 +2925,19 @@
       <c r="F1" s="8">
         <v>2023</v>
       </c>
-      <c r="G1" s="28">
+      <c r="G1" s="24">
         <v>2024</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="24">
         <v>2025</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="24">
         <v>2026</v>
       </c>
-      <c r="J1" s="28">
+      <c r="J1" s="24">
         <v>2027</v>
       </c>
-      <c r="K1" s="28">
+      <c r="K1" s="24">
         <v>2028</v>
       </c>
     </row>
@@ -3058,19 +2995,19 @@
       <c r="F3" s="1">
         <v>2065659000</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="25">
         <v>2753000000</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="25">
         <v>3642000000</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="25">
         <v>4816000000</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="25">
         <v>6664000000</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="25">
         <v>8609000000</v>
       </c>
       <c r="L3" s="19" t="s">
@@ -3510,21 +3447,21 @@
       <c r="F16" s="1">
         <v>2907926000</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="26">
         <f>(F35+E35+D35+C35)/4</f>
         <v>0.20264518659597172</v>
       </c>
-      <c r="M16" s="65">
+      <c r="M16" s="39">
         <f>N101/F3</f>
-        <v>26.790593781451829</v>
-      </c>
-      <c r="N16" s="65">
+        <v>27.765657795405726</v>
+      </c>
+      <c r="N16" s="39">
         <f>N101/F28</f>
-        <v>-69.461383021319051</v>
-      </c>
-      <c r="O16" s="66">
+        <v>-71.989482827395335</v>
+      </c>
+      <c r="O16" s="40">
         <f>N101/F107</f>
-        <v>111.46091162318554</v>
+        <v>115.51761618049584</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3598,36 +3535,36 @@
       <c r="F19" s="10">
         <v>-711206000</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="34">
         <v>238500000</v>
       </c>
-      <c r="H19" s="60">
+      <c r="H19" s="34">
         <v>401200000</v>
       </c>
-      <c r="I19" s="60">
+      <c r="I19" s="34">
         <v>638300000</v>
       </c>
-      <c r="J19" s="60">
+      <c r="J19" s="34">
         <v>1006000000</v>
       </c>
-      <c r="K19" s="60">
+      <c r="K19" s="34">
         <v>1742000000</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="27">
         <f>F40-F56-F61</f>
         <v>3756210000</v>
       </c>
-      <c r="M19" s="65">
+      <c r="M19" s="39">
         <f>N101/G3</f>
-        <v>20.101791195059935</v>
-      </c>
-      <c r="N19" s="65">
+        <v>20.833411157282963</v>
+      </c>
+      <c r="N19" s="39">
         <f>N101/G28</f>
-        <v>259.56956454033769</v>
-      </c>
-      <c r="O19" s="66">
+        <v>269.01679604127582</v>
+      </c>
+      <c r="O19" s="40">
         <f>N101/G105</f>
-        <v>-217.86278997026523</v>
+        <v>-225.79207172536675</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3691,23 +3628,23 @@
       <c r="F21" s="2">
         <v>-0.34429999999999999</v>
       </c>
-      <c r="G21" s="61">
+      <c r="G21" s="35">
         <f>G19/G3</f>
         <v>8.6632764257173991E-2</v>
       </c>
-      <c r="H21" s="61">
+      <c r="H21" s="35">
         <f t="shared" ref="H21:K21" si="9">H19/H3</f>
         <v>0.1101592531576057</v>
       </c>
-      <c r="I21" s="61">
+      <c r="I21" s="35">
         <f t="shared" si="9"/>
         <v>0.1325373754152824</v>
       </c>
-      <c r="J21" s="61">
+      <c r="J21" s="35">
         <f t="shared" si="9"/>
         <v>0.15096038415366148</v>
       </c>
-      <c r="K21" s="61">
+      <c r="K21" s="35">
         <f t="shared" si="9"/>
         <v>0.20234638169357649</v>
       </c>
@@ -3737,13 +3674,13 @@
       <c r="F22" s="10">
         <v>-842267000</v>
       </c>
-      <c r="N22" s="74">
+      <c r="N22" s="42">
         <f>(-1*F98)/N101</f>
         <v>0</v>
       </c>
-      <c r="O22" s="75">
+      <c r="O22" s="43">
         <f>F107/N101</f>
-        <v>8.9717550793114546E-3</v>
+        <v>8.6566883308733088E-3</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3865,19 +3802,19 @@
       <c r="F28" s="11">
         <v>-796705000</v>
       </c>
-      <c r="G28" s="62">
+      <c r="G28" s="36">
         <v>213200000</v>
       </c>
-      <c r="H28" s="62">
+      <c r="H28" s="36">
         <v>335200000</v>
       </c>
-      <c r="I28" s="62">
+      <c r="I28" s="36">
         <v>562600000</v>
       </c>
-      <c r="J28" s="62">
+      <c r="J28" s="36">
         <v>777000000</v>
       </c>
-      <c r="K28" s="62">
+      <c r="K28" s="36">
         <v>1233000000</v>
       </c>
     </row>
@@ -3942,23 +3879,23 @@
       <c r="F30" s="2">
         <v>-0.38569999999999999</v>
       </c>
-      <c r="G30" s="63">
+      <c r="G30" s="37">
         <f>G28/G3</f>
         <v>7.7442789683981106E-2</v>
       </c>
-      <c r="H30" s="63">
+      <c r="H30" s="37">
         <f t="shared" ref="H30:K30" si="16">H28/H3</f>
         <v>9.2037342119714441E-2</v>
       </c>
-      <c r="I30" s="63">
+      <c r="I30" s="37">
         <f t="shared" si="16"/>
         <v>0.11681893687707641</v>
       </c>
-      <c r="J30" s="63">
+      <c r="J30" s="37">
         <f t="shared" si="16"/>
         <v>0.11659663865546219</v>
       </c>
-      <c r="K30" s="63">
+      <c r="K30" s="37">
         <f t="shared" si="16"/>
         <v>0.14322220931583227</v>
       </c>
@@ -3982,19 +3919,19 @@
       <c r="F31" s="12">
         <v>-2.5</v>
       </c>
-      <c r="G31" s="64">
+      <c r="G31" s="38">
         <v>0.65</v>
       </c>
-      <c r="H31" s="64">
+      <c r="H31" s="38">
         <v>1.03</v>
       </c>
-      <c r="I31" s="64">
+      <c r="I31" s="38">
         <v>1.73</v>
       </c>
-      <c r="J31" s="64">
+      <c r="J31" s="38">
         <v>2.38</v>
       </c>
-      <c r="K31" s="64">
+      <c r="K31" s="38">
         <v>3.78</v>
       </c>
     </row>
@@ -5044,10 +4981,10 @@
       <c r="F83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M83" s="70" t="s">
+      <c r="M83" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="N83" s="71"/>
+      <c r="N83" s="67"/>
     </row>
     <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5068,10 +5005,10 @@
       <c r="F84" s="1">
         <v>8024000</v>
       </c>
-      <c r="M84" s="72" t="s">
+      <c r="M84" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="N84" s="73"/>
+      <c r="N84" s="68"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5092,10 +5029,10 @@
       <c r="F85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M85" s="24" t="s">
+      <c r="M85" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="N85" s="25">
+      <c r="N85" s="45">
         <f>F17</f>
         <v>73839000</v>
       </c>
@@ -5119,10 +5056,10 @@
       <c r="F86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M86" s="24" t="s">
+      <c r="M86" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="N86" s="25">
+      <c r="N86" s="45">
         <f>F56</f>
         <v>27301000</v>
       </c>
@@ -5146,10 +5083,10 @@
       <c r="F87" s="10">
         <v>545639000</v>
       </c>
-      <c r="M87" s="24" t="s">
+      <c r="M87" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="N87" s="25">
+      <c r="N87" s="45">
         <f>F61</f>
         <v>224357000</v>
       </c>
@@ -5173,10 +5110,10 @@
       <c r="F88" s="1">
         <v>-25128000</v>
       </c>
-      <c r="M88" s="32" t="s">
+      <c r="M88" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="N88" s="33">
+      <c r="N88" s="47">
         <f>N85/(N86+N87)</f>
         <v>0.29341010418901842</v>
       </c>
@@ -5205,10 +5142,10 @@
         <f t="shared" si="19"/>
         <v>1.2164640920887716E-2</v>
       </c>
-      <c r="M89" s="24" t="s">
+      <c r="M89" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="N89" s="25">
+      <c r="N89" s="45">
         <f>F27</f>
         <v>18467000</v>
       </c>
@@ -5232,10 +5169,10 @@
       <c r="F90" s="1">
         <v>-362609000</v>
       </c>
-      <c r="M90" s="24" t="s">
+      <c r="M90" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N90" s="25">
+      <c r="N90" s="45">
         <f>F25</f>
         <v>-815993000</v>
       </c>
@@ -5259,10 +5196,10 @@
       <c r="F91" s="1">
         <v>-3854886000</v>
       </c>
-      <c r="M91" s="32" t="s">
+      <c r="M91" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="N91" s="33">
+      <c r="N91" s="47">
         <f>N89/N90</f>
         <v>-2.263132159221954E-2</v>
       </c>
@@ -5286,10 +5223,10 @@
       <c r="F92" s="1">
         <v>3715885000</v>
       </c>
-      <c r="M92" s="34" t="s">
+      <c r="M92" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="N92" s="35">
+      <c r="N92" s="47">
         <f>N88*(1-N91)</f>
         <v>0.30005036261532675</v>
       </c>
@@ -5313,10 +5250,10 @@
       <c r="F93" s="1">
         <v>-71147000</v>
       </c>
-      <c r="M93" s="72" t="s">
+      <c r="M93" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="N93" s="73"/>
+      <c r="N93" s="68"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5337,12 +5274,12 @@
       <c r="F94" s="10">
         <v>-597885000</v>
       </c>
-      <c r="M94" s="24" t="s">
+      <c r="M94" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="N94" s="36">
+      <c r="N94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5364,12 +5301,12 @@
       <c r="F95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M95" s="24" t="s">
+      <c r="M95" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="N95" s="55" cm="1">
+      <c r="N95" s="49" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>1.61</v>
+        <v>1.6120000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5391,10 +5328,10 @@
       <c r="F96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M96" s="24" t="s">
+      <c r="M96" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="N96" s="36">
+      <c r="N96" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5417,12 +5354,12 @@
       <c r="F97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M97" s="34" t="s">
+      <c r="M97" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="N97" s="35">
+      <c r="N97" s="47">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.11243210000000001</v>
+        <v>0.11182152000000001</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5444,10 +5381,10 @@
       <c r="F98" s="1">
         <v>0</v>
       </c>
-      <c r="M98" s="72" t="s">
+      <c r="M98" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="N98" s="73"/>
+      <c r="N98" s="68"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5468,10 +5405,10 @@
       <c r="F99" s="1">
         <v>-92624000</v>
       </c>
-      <c r="M99" s="24" t="s">
+      <c r="M99" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="N99" s="25">
+      <c r="N99" s="45">
         <f>N86+N87</f>
         <v>251658000</v>
       </c>
@@ -5495,12 +5432,12 @@
       <c r="F100" s="10">
         <v>-92624000</v>
       </c>
-      <c r="M100" s="32" t="s">
+      <c r="M100" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="N100" s="33">
+      <c r="N100" s="47">
         <f>N99/N103</f>
-        <v>4.5268833961677156E-3</v>
+        <v>4.3686044854943555E-3</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5522,12 +5459,12 @@
       <c r="F101" s="1">
         <v>-933000</v>
       </c>
-      <c r="M101" s="24" t="s">
+      <c r="M101" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="N101" s="37" cm="1">
+      <c r="N101" s="50" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>55340231160</v>
+        <v>57354380916</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5549,12 +5486,12 @@
       <c r="F102" s="10">
         <v>-145803000</v>
       </c>
-      <c r="M102" s="32" t="s">
+      <c r="M102" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="N102" s="33">
+      <c r="N102" s="47">
         <f>N101/N103</f>
-        <v>0.99547311660383231</v>
+        <v>0.99563139551450563</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5576,13 +5513,13 @@
       <c r="F103" s="1">
         <v>1102534000</v>
       </c>
-      <c r="L103" s="58"/>
-      <c r="M103" s="34" t="s">
+      <c r="L103" s="32"/>
+      <c r="M103" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="N103" s="38">
+      <c r="N103" s="51">
         <f>N99+N101</f>
-        <v>55591889160</v>
+        <v>57606038916</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5610,10 +5547,10 @@
       <c r="J104" s="16"/>
       <c r="K104" s="16"/>
       <c r="L104" s="16"/>
-      <c r="M104" s="72" t="s">
+      <c r="M104" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="N104" s="73"/>
+      <c r="N104" s="68"/>
     </row>
     <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5639,35 +5576,35 @@
         <f>(F22*(1-0.2))+F77+F88+F81</f>
         <v>-190884600</v>
       </c>
-      <c r="G105" s="53">
+      <c r="G105" s="30">
         <f>F105*(1+$N$106)</f>
         <v>-254014148.84824091</v>
       </c>
-      <c r="H105" s="53">
+      <c r="H105" s="30">
         <f t="shared" ref="H105:K105" si="21">G105*(1+$N$106)</f>
         <v>-338021966.23036265</v>
       </c>
-      <c r="I105" s="53">
+      <c r="I105" s="30">
         <f t="shared" si="21"/>
         <v>-449812934.32793635</v>
       </c>
-      <c r="J105" s="53">
+      <c r="J105" s="30">
         <f t="shared" si="21"/>
         <v>-598575524.97289169</v>
       </c>
-      <c r="K105" s="53">
+      <c r="K105" s="30">
         <f t="shared" si="21"/>
         <v>-796537030.73678052</v>
       </c>
-      <c r="L105" s="39" t="s">
+      <c r="L105" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="M105" s="26" t="s">
+      <c r="M105" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="N105" s="27">
+      <c r="N105" s="53">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.11328142599785117</v>
+        <v>0.11264381736614873</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5691,34 +5628,34 @@
         <f>(F107/E107)-1</f>
         <v>7.7331844086399784</v>
       </c>
-      <c r="G106" s="57">
+      <c r="G106" s="31">
         <v>520400000</v>
       </c>
-      <c r="H106" s="57">
+      <c r="H106" s="31">
         <v>751800000</v>
       </c>
-      <c r="I106" s="57">
+      <c r="I106" s="31">
         <v>1068000000</v>
       </c>
-      <c r="J106" s="57">
+      <c r="J106" s="31">
         <v>1717000000</v>
       </c>
-      <c r="K106" s="57">
+      <c r="K106" s="31">
         <v>2356000000</v>
       </c>
-      <c r="L106" s="39" t="s">
+      <c r="L106" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="M106" s="40" t="s">
+      <c r="M106" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="N106" s="41">
+      <c r="N106" s="55">
         <f>(SUM(G4:K4)/5)</f>
         <v>0.33072101598683651</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="67" t="s">
+      <c r="A107" s="41" t="s">
         <v>161</v>
       </c>
       <c r="B107" s="1">
@@ -5736,139 +5673,139 @@
       <c r="F107" s="1">
         <v>496499000</v>
       </c>
-      <c r="G107" s="39"/>
-      <c r="H107" s="39"/>
-      <c r="I107" s="39"/>
-      <c r="J107" s="39"/>
-      <c r="K107" s="59">
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="33">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>27354564934.857086</v>
-      </c>
-      <c r="L107" s="42" t="s">
+        <v>27553569351.176197</v>
+      </c>
+      <c r="L107" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="M107" s="43" t="s">
+      <c r="M107" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="N107" s="44">
+      <c r="N107" s="57">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G108" s="59">
+      <c r="G108" s="33">
         <f t="shared" ref="G108:J108" si="22">G107+G106</f>
         <v>520400000</v>
       </c>
-      <c r="H108" s="59">
+      <c r="H108" s="33">
         <f t="shared" si="22"/>
         <v>751800000</v>
       </c>
-      <c r="I108" s="59">
+      <c r="I108" s="33">
         <f t="shared" si="22"/>
         <v>1068000000</v>
       </c>
-      <c r="J108" s="59">
+      <c r="J108" s="33">
         <f t="shared" si="22"/>
         <v>1717000000</v>
       </c>
-      <c r="K108" s="59">
+      <c r="K108" s="33">
         <f>K107+K106</f>
-        <v>29710564934.857086</v>
-      </c>
-      <c r="L108" s="42" t="s">
+        <v>29909569351.176197</v>
+      </c>
+      <c r="L108" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="M108" s="45" t="s">
+      <c r="M108" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="N108" s="46">
+      <c r="N108" s="55">
         <f>N105</f>
-        <v>0.11328142599785117</v>
+        <v>0.11264381736614873</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="68" t="s">
+      <c r="G109" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="H109" s="69"/>
+      <c r="H109" s="65"/>
     </row>
     <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G110" s="47" t="s">
+      <c r="G110" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="H110" s="37">
+      <c r="H110" s="50">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>20339276216.881027</v>
+        <v>20510675303.433849</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G111" s="47" t="s">
+      <c r="G111" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="H111" s="37">
+      <c r="H111" s="50">
         <f>F40</f>
         <v>4007868000</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G112" s="47" t="s">
+      <c r="G112" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="H112" s="37">
+      <c r="H112" s="50">
         <f>N99</f>
         <v>251658000</v>
       </c>
     </row>
     <row r="113" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G113" s="47" t="s">
+      <c r="G113" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="H113" s="37">
+      <c r="H113" s="50">
         <f>H110+H111-H112</f>
-        <v>24095486216.881027</v>
+        <v>24266885303.433849</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G114" s="47" t="s">
+      <c r="G114" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="H114" s="48">
+      <c r="H114" s="59">
         <f>F34*(1+(5*0.05))</f>
         <v>398412500</v>
       </c>
     </row>
     <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G115" s="49" t="s">
+      <c r="G115" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="H115" s="56">
+      <c r="H115" s="61">
         <f>H113/H114</f>
-        <v>60.478740543735519</v>
+        <v>60.908945636579801</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G116" s="47" t="s">
+      <c r="G116" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="H116" s="54" cm="1">
+      <c r="H116" s="62" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>169.8</v>
+        <v>175.98</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G117" s="50" t="s">
+      <c r="G117" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="H117" s="51">
+      <c r="H117" s="63">
         <f>H115/H116-1</f>
-        <v>-0.64382367170944921</v>
+        <v>-0.65388711423695978</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G118" s="50" t="s">
+      <c r="G118" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="H118" s="52" t="str">
+      <c r="H118" s="64" t="str">
         <f>IF(H115&gt;H116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/Snowflake.xlsx
+++ b/Technology/Software/Snowflake.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD2D1FA-B7E7-2947-BF34-A0D90B322F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5988E6E-6597-0E4E-BEA9-ADB878262B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2105,7 +2105,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2119,10 +2118,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2136,14 +2137,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2153,6 +2154,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2280,11 +2282,11 @@
     <v>Powered by Refinitiv</v>
     <v>205.66</v>
     <v>119.27</v>
-    <v>1.6120000000000001</v>
-    <v>0.21</v>
-    <v>1.1949999999999999E-3</v>
-    <v>-0.08</v>
-    <v>-4.5459999999999999E-4</v>
+    <v>1.609</v>
+    <v>-1.58</v>
+    <v>-9.1760000000000001E-3</v>
+    <v>-0.09</v>
+    <v>-5.2749999999999997E-4</v>
     <v>USD</v>
     <v>Snowflake Inc. is a Data Cloud company. The Company’s platform is the technology that powers the Data Cloud, enabling customers to consolidate data into a single source of truth to drive meaningful business insights, build data applications, and share data and data products. Its platform unifies data and supports a variety of workloads, including data warehousing, data lakes, and Unistore, as well as collaboration, data engineering, cybersecurity, data science and machine learning, and application development. The Company has developed technology across its platform, including managed service, storage, query capabilities, compute model, data sharing, global infrastructure, and integrated security. The Company also provides frictionless and governed data access so users can securely share data inside and outside of their organizations, generally without copying or moving the underlying data.</v>
     <v>5884</v>
@@ -2292,24 +2294,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>106 East Babcock Street, Suite 3A, BOZEMAN, MT, 59715 US</v>
-    <v>181.5</v>
+    <v>176.41</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45107.999853911722</v>
+    <v>45114.999980578126</v>
     <v>0</v>
-    <v>175.75</v>
-    <v>57354380916</v>
+    <v>170.49</v>
+    <v>55604220000</v>
     <v>SNOWFLAKE INC.</v>
     <v>SNOWFLAKE INC.</v>
-    <v>179.33</v>
-    <v>175.77</v>
-    <v>175.98</v>
-    <v>175.9</v>
+    <v>173.37</v>
+    <v>172.19</v>
+    <v>170.61</v>
+    <v>170.52</v>
     <v>325914200</v>
     <v>SNOW</v>
     <v>SNOWFLAKE INC. (XNYS:SNOW)</v>
-    <v>7345166</v>
-    <v>8417489</v>
+    <v>3212306</v>
+    <v>7048344</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2896,7 +2898,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="E88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H95" sqref="H95"/>
+      <selection pane="bottomRight" activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3453,15 +3455,15 @@
       </c>
       <c r="M16" s="39">
         <f>N101/F3</f>
-        <v>27.765657795405726</v>
+        <v>26.918392629180325</v>
       </c>
       <c r="N16" s="39">
         <f>N101/F28</f>
-        <v>-71.989482827395335</v>
+        <v>-69.792733822431131</v>
       </c>
       <c r="O16" s="40">
         <f>N101/F107</f>
-        <v>115.51761618049584</v>
+        <v>111.9926122711224</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3556,15 +3558,15 @@
       </c>
       <c r="M19" s="39">
         <f>N101/G3</f>
-        <v>20.833411157282963</v>
+        <v>20.197682528151109</v>
       </c>
       <c r="N19" s="39">
         <f>N101/G28</f>
-        <v>269.01679604127582</v>
+        <v>260.80778611632269</v>
       </c>
       <c r="O19" s="40">
         <f>N101/G105</f>
-        <v>-225.79207172536675</v>
+        <v>-218.90205822046698</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3680,7 +3682,7 @@
       </c>
       <c r="O22" s="43">
         <f>F107/N101</f>
-        <v>8.6566883308733088E-3</v>
+        <v>8.9291604126449393E-3</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5279,7 +5281,7 @@
       </c>
       <c r="N94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5306,7 +5308,7 @@
       </c>
       <c r="N95" s="49" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>1.6120000000000001</v>
+        <v>1.609</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5359,7 +5361,7 @@
       </c>
       <c r="N97" s="47">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.11182152000000001</v>
+        <v>0.11054631000000001</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5437,7 +5439,7 @@
       </c>
       <c r="N100" s="47">
         <f>N99/N103</f>
-        <v>4.3686044854943555E-3</v>
+        <v>4.5054882137919305E-3</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5464,7 +5466,7 @@
       </c>
       <c r="N101" s="50" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>57354380916</v>
+        <v>55604220000</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5491,7 +5493,7 @@
       </c>
       <c r="N102" s="47">
         <f>N101/N103</f>
-        <v>0.99563139551450563</v>
+        <v>0.99549451178620807</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5519,7 +5521,7 @@
       </c>
       <c r="N103" s="51">
         <f>N99+N101</f>
-        <v>57606038916</v>
+        <v>55855878000</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5604,7 +5606,7 @@
       </c>
       <c r="N105" s="53">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.11264381736614873</v>
+        <v>0.11140011827552418</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5679,7 +5681,7 @@
       <c r="J107" s="28"/>
       <c r="K107" s="33">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>27553569351.176197</v>
+        <v>27950193219.632477</v>
       </c>
       <c r="L107" s="29" t="s">
         <v>144</v>
@@ -5710,7 +5712,7 @@
       </c>
       <c r="K108" s="33">
         <f>K107+K106</f>
-        <v>29909569351.176197</v>
+        <v>30306193219.632477</v>
       </c>
       <c r="L108" s="29" t="s">
         <v>141</v>
@@ -5720,7 +5722,7 @@
       </c>
       <c r="N108" s="55">
         <f>N105</f>
-        <v>0.11264381736614873</v>
+        <v>0.11140011827552418</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5735,7 +5737,7 @@
       </c>
       <c r="H110" s="50">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>20510675303.433849</v>
+        <v>20852445226.738117</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5762,7 +5764,7 @@
       </c>
       <c r="H113" s="50">
         <f>H110+H111-H112</f>
-        <v>24266885303.433849</v>
+        <v>24608655226.738117</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5780,7 +5782,7 @@
       </c>
       <c r="H115" s="61">
         <f>H113/H114</f>
-        <v>60.908945636579801</v>
+        <v>61.766774954947742</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5789,7 +5791,7 @@
       </c>
       <c r="H116" s="62" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>175.98</v>
+        <v>170.61</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5798,7 +5800,7 @@
       </c>
       <c r="H117" s="63">
         <f>H115/H116-1</f>
-        <v>-0.65388711423695978</v>
+        <v>-0.63796509609666652</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Snowflake.xlsx
+++ b/Technology/Software/Snowflake.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5988E6E-6597-0E4E-BEA9-ADB878262B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4EEF20-9CA6-0744-A25F-2DD5F7F796C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -567,13 +567,13 @@
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
-    <t>Shares (5% dilution)</t>
-  </si>
-  <si>
     <t>Dividend Yield</t>
   </si>
   <si>
     <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Shares (No dilution)</t>
   </si>
 </sst>
 </file>
@@ -1108,9 +1108,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.5814569536423829E-2"/>
-          <c:y val="0.12133190522499429"/>
+          <c:y val="0.15840021269787191"/>
           <c:w val="0.86385430463576174"/>
-          <c:h val="0.75602669188263816"/>
+          <c:h val="0.68525995256752548"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2062,13 +2062,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2103,8 +2103,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2113,21 +2112,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2137,24 +2137,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2283,10 +2271,8 @@
     <v>205.66</v>
     <v>119.27</v>
     <v>1.609</v>
-    <v>-1.58</v>
-    <v>-9.1760000000000001E-3</v>
-    <v>-0.09</v>
-    <v>-5.2749999999999997E-4</v>
+    <v>-0.96</v>
+    <v>-5.6270000000000001E-3</v>
     <v>USD</v>
     <v>Snowflake Inc. is a Data Cloud company. The Company’s platform is the technology that powers the Data Cloud, enabling customers to consolidate data into a single source of truth to drive meaningful business insights, build data applications, and share data and data products. Its platform unifies data and supports a variety of workloads, including data warehousing, data lakes, and Unistore, as well as collaboration, data engineering, cybersecurity, data science and machine learning, and application development. The Company has developed technology across its platform, including managed service, storage, query capabilities, compute model, data sharing, global infrastructure, and integrated security. The Company also provides frictionless and governed data access so users can securely share data inside and outside of their organizations, generally without copying or moving the underlying data.</v>
     <v>5884</v>
@@ -2294,24 +2280,23 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>106 East Babcock Street, Suite 3A, BOZEMAN, MT, 59715 US</v>
-    <v>176.41</v>
+    <v>170.48</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45114.999980578126</v>
+    <v>45117.999852267967</v>
     <v>0</v>
-    <v>170.49</v>
-    <v>55604220000</v>
+    <v>162.6</v>
+    <v>55291344030</v>
     <v>SNOWFLAKE INC.</v>
     <v>SNOWFLAKE INC.</v>
-    <v>173.37</v>
-    <v>172.19</v>
+    <v>166.53</v>
     <v>170.61</v>
-    <v>170.52</v>
+    <v>169.65</v>
     <v>325914200</v>
     <v>SNOW</v>
     <v>SNOWFLAKE INC. (XNYS:SNOW)</v>
-    <v>3212306</v>
-    <v>7048344</v>
+    <v>2038</v>
+    <v>6592610</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2343,8 +2328,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2364,7 +2347,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2381,7 +2363,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="44">
+    <a count="41">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2392,16 +2374,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2465,19 +2444,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2521,9 +2494,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2531,9 +2501,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2895,10 +2862,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I103" sqref="I103"/>
+      <selection pane="bottomRight" activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3001,10 +2968,10 @@
         <v>2753000000</v>
       </c>
       <c r="H3" s="25">
-        <v>3642000000</v>
+        <v>3637000000</v>
       </c>
       <c r="I3" s="25">
-        <v>4816000000</v>
+        <v>4767000000</v>
       </c>
       <c r="J3" s="25">
         <v>6664000000</v>
@@ -3052,15 +3019,15 @@
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.3229204504177261</v>
+        <v>0.32110424990919006</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.32235035694673253</v>
+        <v>0.3106956282650537</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.38372093023255816</v>
+        <v>0.39794419970631423</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
@@ -3455,15 +3422,15 @@
       </c>
       <c r="M16" s="39">
         <f>N101/F3</f>
-        <v>26.918392629180325</v>
+        <v>26.766927179171393</v>
       </c>
       <c r="N16" s="39">
         <f>N101/F28</f>
-        <v>-69.792733822431131</v>
+        <v>-69.400021375540504</v>
       </c>
       <c r="O16" s="40">
         <f>N101/F107</f>
-        <v>111.9926122711224</v>
+        <v>111.36244792033821</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3544,7 +3511,7 @@
         <v>401200000</v>
       </c>
       <c r="I19" s="34">
-        <v>638300000</v>
+        <v>646100000</v>
       </c>
       <c r="J19" s="34">
         <v>1006000000</v>
@@ -3558,15 +3525,15 @@
       </c>
       <c r="M19" s="39">
         <f>N101/G3</f>
-        <v>20.197682528151109</v>
+        <v>20.084033428986562</v>
       </c>
       <c r="N19" s="39">
         <f>N101/G28</f>
-        <v>260.80778611632269</v>
+        <v>253.16549464285714</v>
       </c>
       <c r="O19" s="40">
         <f>N101/G105</f>
-        <v>-218.90205822046698</v>
+        <v>-217.64572191223516</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3600,11 +3567,11 @@
       </c>
       <c r="I20" s="16">
         <f t="shared" ref="I20" si="6">(I19/H19)-1</f>
-        <v>0.59097706879361911</v>
+        <v>0.61041874376869387</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" ref="J20" si="7">(J19/I19)-1</f>
-        <v>0.5760614131286228</v>
+        <v>0.55703451478099364</v>
       </c>
       <c r="K20" s="16">
         <f t="shared" ref="K20" si="8">(K19/J19)-1</f>
@@ -3636,11 +3603,11 @@
       </c>
       <c r="H21" s="35">
         <f t="shared" ref="H21:K21" si="9">H19/H3</f>
-        <v>0.1101592531576057</v>
+        <v>0.11031069562826505</v>
       </c>
       <c r="I21" s="35">
         <f t="shared" si="9"/>
-        <v>0.1325373754152824</v>
+        <v>0.13553597650513949</v>
       </c>
       <c r="J21" s="35">
         <f t="shared" si="9"/>
@@ -3651,10 +3618,10 @@
         <v>0.20234638169357649</v>
       </c>
       <c r="N21" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="O21" s="20" t="s">
         <v>165</v>
-      </c>
-      <c r="O21" s="20" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3682,7 +3649,7 @@
       </c>
       <c r="O22" s="43">
         <f>F107/N101</f>
-        <v>8.9291604126449393E-3</v>
+        <v>8.979687665588475E-3</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3805,16 +3772,16 @@
         <v>-796705000</v>
       </c>
       <c r="G28" s="36">
-        <v>213200000</v>
+        <v>218400000</v>
       </c>
       <c r="H28" s="36">
-        <v>335200000</v>
+        <v>347100000</v>
       </c>
       <c r="I28" s="36">
         <v>562600000</v>
       </c>
       <c r="J28" s="36">
-        <v>777000000</v>
+        <v>932100000</v>
       </c>
       <c r="K28" s="36">
         <v>1233000000</v>
@@ -3843,23 +3810,23 @@
       </c>
       <c r="G29" s="16">
         <f t="shared" ref="G29" si="11">(G28/F28)-1</f>
-        <v>-1.2676021865056701</v>
+        <v>-1.2741290691033695</v>
       </c>
       <c r="H29" s="16">
         <f t="shared" ref="H29" si="12">(H28/G28)-1</f>
-        <v>0.57223264540337704</v>
+        <v>0.58928571428571419</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" ref="I29" si="13">(I28/H28)-1</f>
-        <v>0.67840095465393802</v>
+        <v>0.62085854220685688</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" ref="J29" si="14">(J28/I28)-1</f>
-        <v>0.38108780661215791</v>
+        <v>0.65677212939921792</v>
       </c>
       <c r="K29" s="16">
         <f t="shared" ref="K29" si="15">(K28/J28)-1</f>
-        <v>0.58687258687258681</v>
+        <v>0.32281943997425167</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3883,19 +3850,19 @@
       </c>
       <c r="G30" s="37">
         <f>G28/G3</f>
-        <v>7.7442789683981106E-2</v>
+        <v>7.9331638212858699E-2</v>
       </c>
       <c r="H30" s="37">
         <f t="shared" ref="H30:K30" si="16">H28/H3</f>
-        <v>9.2037342119714441E-2</v>
+        <v>9.5435798735221331E-2</v>
       </c>
       <c r="I30" s="37">
         <f t="shared" si="16"/>
-        <v>0.11681893687707641</v>
+        <v>0.11801971890077617</v>
       </c>
       <c r="J30" s="37">
         <f t="shared" si="16"/>
-        <v>0.11659663865546219</v>
+        <v>0.13987094837935174</v>
       </c>
       <c r="K30" s="37">
         <f t="shared" si="16"/>
@@ -3922,16 +3889,16 @@
         <v>-2.5</v>
       </c>
       <c r="G31" s="38">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="H31" s="38">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="I31" s="38">
         <v>1.73</v>
       </c>
       <c r="J31" s="38">
-        <v>2.38</v>
+        <v>2.86</v>
       </c>
       <c r="K31" s="38">
         <v>3.78</v>
@@ -5281,7 +5248,7 @@
       </c>
       <c r="N94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5361,7 +5328,7 @@
       </c>
       <c r="N97" s="47">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.11054631000000001</v>
+        <v>0.11050368000000001</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5439,7 +5406,7 @@
       </c>
       <c r="N100" s="47">
         <f>N99/N103</f>
-        <v>4.5054882137919305E-3</v>
+        <v>4.5308678105672783E-3</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5466,7 +5433,7 @@
       </c>
       <c r="N101" s="50" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>55604220000</v>
+        <v>55291344030</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5493,7 +5460,7 @@
       </c>
       <c r="N102" s="47">
         <f>N101/N103</f>
-        <v>0.99549451178620807</v>
+        <v>0.99546913218943267</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5521,7 +5488,7 @@
       </c>
       <c r="N103" s="51">
         <f>N99+N101</f>
-        <v>55855878000</v>
+        <v>55543002030</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5580,23 +5547,23 @@
       </c>
       <c r="G105" s="30">
         <f>F105*(1+$N$106)</f>
-        <v>-254014148.84824091</v>
+        <v>-254042870.88305843</v>
       </c>
       <c r="H105" s="30">
         <f t="shared" ref="H105:K105" si="21">G105*(1+$N$106)</f>
-        <v>-338021966.23036265</v>
+        <v>-338098412.58281857</v>
       </c>
       <c r="I105" s="30">
         <f t="shared" si="21"/>
-        <v>-449812934.32793635</v>
+        <v>-449965536.10686243</v>
       </c>
       <c r="J105" s="30">
         <f t="shared" si="21"/>
-        <v>-598575524.97289169</v>
+        <v>-598846300.80698919</v>
       </c>
       <c r="K105" s="30">
         <f t="shared" si="21"/>
-        <v>-796537030.73678052</v>
+        <v>-796987465.06898475</v>
       </c>
       <c r="L105" s="28" t="s">
         <v>162</v>
@@ -5606,7 +5573,7 @@
       </c>
       <c r="N105" s="53">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.11140011827552418</v>
+        <v>0.11136249096286159</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5631,19 +5598,19 @@
         <v>7.7331844086399784</v>
       </c>
       <c r="G106" s="31">
-        <v>520400000</v>
+        <v>516000000</v>
       </c>
       <c r="H106" s="31">
-        <v>751800000</v>
+        <v>738900000</v>
       </c>
       <c r="I106" s="31">
-        <v>1068000000</v>
+        <v>1044000000</v>
       </c>
       <c r="J106" s="31">
-        <v>1717000000</v>
+        <v>1734000000</v>
       </c>
       <c r="K106" s="31">
-        <v>2356000000</v>
+        <v>2596000000</v>
       </c>
       <c r="L106" s="28" t="s">
         <v>163</v>
@@ -5653,7 +5620,7 @@
       </c>
       <c r="N106" s="55">
         <f>(SUM(G4:K4)/5)</f>
-        <v>0.33072101598683651</v>
+        <v>0.33087148404354477</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5681,7 +5648,7 @@
       <c r="J107" s="28"/>
       <c r="K107" s="33">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>27950193219.632477</v>
+        <v>30810829682.347462</v>
       </c>
       <c r="L107" s="29" t="s">
         <v>144</v>
@@ -5696,23 +5663,23 @@
     <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="G108" s="33">
         <f t="shared" ref="G108:J108" si="22">G107+G106</f>
-        <v>520400000</v>
+        <v>516000000</v>
       </c>
       <c r="H108" s="33">
         <f t="shared" si="22"/>
-        <v>751800000</v>
+        <v>738900000</v>
       </c>
       <c r="I108" s="33">
         <f t="shared" si="22"/>
-        <v>1068000000</v>
+        <v>1044000000</v>
       </c>
       <c r="J108" s="33">
         <f t="shared" si="22"/>
-        <v>1717000000</v>
+        <v>1734000000</v>
       </c>
       <c r="K108" s="33">
         <f>K107+K106</f>
-        <v>30306193219.632477</v>
+        <v>33406829682.347462</v>
       </c>
       <c r="L108" s="29" t="s">
         <v>141</v>
@@ -5722,7 +5689,7 @@
       </c>
       <c r="N108" s="55">
         <f>N105</f>
-        <v>0.11140011827552418</v>
+        <v>0.11136249096286159</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5737,7 +5704,7 @@
       </c>
       <c r="H110" s="50">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>20852445226.738117</v>
+        <v>22663840636.435928</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5764,16 +5731,16 @@
       </c>
       <c r="H113" s="50">
         <f>H110+H111-H112</f>
-        <v>24608655226.738117</v>
+        <v>26420050636.435928</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
       <c r="G114" s="59" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H114" s="59">
-        <f>F34*(1+(5*0.05))</f>
-        <v>398412500</v>
+        <f>F34*(1+(5*0))</f>
+        <v>318730000</v>
       </c>
     </row>
     <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5782,7 +5749,7 @@
       </c>
       <c r="H115" s="61">
         <f>H113/H114</f>
-        <v>61.766774954947742</v>
+        <v>82.891634412938629</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5791,7 +5758,7 @@
       </c>
       <c r="H116" s="62" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>170.61</v>
+        <v>169.65</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5800,7 +5767,7 @@
       </c>
       <c r="H117" s="63">
         <f>H115/H116-1</f>
-        <v>-0.63796509609666652</v>
+        <v>-0.51139620151524534</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Snowflake.xlsx
+++ b/Technology/Software/Snowflake.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4EEF20-9CA6-0744-A25F-2DD5F7F796C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088DB28E-5AD5-224F-80C3-A2AAF1F2EDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2113,6 +2113,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2124,7 +2125,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2143,6 +2144,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2270,9 +2272,11 @@
     <v>Powered by Refinitiv</v>
     <v>205.66</v>
     <v>119.27</v>
-    <v>1.609</v>
-    <v>-0.96</v>
-    <v>-5.6270000000000001E-3</v>
+    <v>1.607</v>
+    <v>4.55</v>
+    <v>2.6030000000000001E-2</v>
+    <v>-4.84</v>
+    <v>-2.6995000000000002E-2</v>
     <v>USD</v>
     <v>Snowflake Inc. is a Data Cloud company. The Company’s platform is the technology that powers the Data Cloud, enabling customers to consolidate data into a single source of truth to drive meaningful business insights, build data applications, and share data and data products. Its platform unifies data and supports a variety of workloads, including data warehousing, data lakes, and Unistore, as well as collaboration, data engineering, cybersecurity, data science and machine learning, and application development. The Company has developed technology across its platform, including managed service, storage, query capabilities, compute model, data sharing, global infrastructure, and integrated security. The Company also provides frictionless and governed data access so users can securely share data inside and outside of their organizations, generally without copying or moving the underlying data.</v>
     <v>5884</v>
@@ -2280,23 +2284,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>106 East Babcock Street, Suite 3A, BOZEMAN, MT, 59715 US</v>
-    <v>170.48</v>
+    <v>181.8</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45117.999852267967</v>
+    <v>45132.976447476562</v>
     <v>0</v>
-    <v>162.6</v>
-    <v>55291344030</v>
+    <v>176.31</v>
+    <v>58452711770</v>
     <v>SNOWFLAKE INC.</v>
     <v>SNOWFLAKE INC.</v>
-    <v>166.53</v>
-    <v>170.61</v>
-    <v>169.65</v>
+    <v>177</v>
+    <v>174.8</v>
+    <v>179.35</v>
+    <v>174.45</v>
     <v>325914200</v>
     <v>SNOW</v>
     <v>SNOWFLAKE INC. (XNYS:SNOW)</v>
-    <v>2038</v>
-    <v>6592610</v>
+    <v>3767866</v>
+    <v>5909333</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2328,6 +2333,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2347,6 +2354,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2363,7 +2371,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="41">
+    <a count="44">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2374,13 +2382,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2444,13 +2455,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2494,6 +2511,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2501,6 +2521,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2862,10 +2885,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H114" sqref="H114"/>
+      <selection pane="bottomRight" activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3422,15 +3445,15 @@
       </c>
       <c r="M16" s="39">
         <f>N101/F3</f>
-        <v>26.766927179171393</v>
+        <v>28.297367459972822</v>
       </c>
       <c r="N16" s="39">
         <f>N101/F28</f>
-        <v>-69.400021375540504</v>
+        <v>-73.368074469220105</v>
       </c>
       <c r="O16" s="40">
         <f>N101/F107</f>
-        <v>111.36244792033821</v>
+        <v>117.72976737113267</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3525,15 +3548,15 @@
       </c>
       <c r="M19" s="39">
         <f>N101/G3</f>
-        <v>20.084033428986562</v>
+        <v>21.232368968398109</v>
       </c>
       <c r="N19" s="39">
         <f>N101/G28</f>
-        <v>253.16549464285714</v>
+        <v>267.64062165750914</v>
       </c>
       <c r="O19" s="40">
         <f>N101/G105</f>
-        <v>-217.64572191223516</v>
+        <v>-230.08995122286694</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3649,7 +3672,7 @@
       </c>
       <c r="O22" s="43">
         <f>F107/N101</f>
-        <v>8.979687665588475E-3</v>
+        <v>8.4940285055315583E-3</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5248,7 +5271,7 @@
       </c>
       <c r="N94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5275,7 +5298,7 @@
       </c>
       <c r="N95" s="49" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>1.609</v>
+        <v>1.607</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5328,7 +5351,7 @@
       </c>
       <c r="N97" s="47">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.11050368000000001</v>
+        <v>0.11124216000000001</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5406,7 +5429,7 @@
       </c>
       <c r="N100" s="47">
         <f>N99/N103</f>
-        <v>4.5308678105672783E-3</v>
+        <v>4.2868699721329111E-3</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5433,7 +5456,7 @@
       </c>
       <c r="N101" s="50" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>55291344030</v>
+        <v>58452711770</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5460,7 +5483,7 @@
       </c>
       <c r="N102" s="47">
         <f>N101/N103</f>
-        <v>0.99546913218943267</v>
+        <v>0.9957131300278671</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5488,7 +5511,7 @@
       </c>
       <c r="N103" s="51">
         <f>N99+N101</f>
-        <v>55543002030</v>
+        <v>58704369770</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5573,7 +5596,7 @@
       </c>
       <c r="N105" s="53">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.11136249096286159</v>
+        <v>0.11205155621428405</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5648,7 +5671,7 @@
       <c r="J107" s="28"/>
       <c r="K107" s="33">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>30810829682.347462</v>
+        <v>30566943495.530304</v>
       </c>
       <c r="L107" s="29" t="s">
         <v>144</v>
@@ -5679,7 +5702,7 @@
       </c>
       <c r="K108" s="33">
         <f>K107+K106</f>
-        <v>33406829682.347462</v>
+        <v>33162943495.530304</v>
       </c>
       <c r="L108" s="29" t="s">
         <v>141</v>
@@ -5689,7 +5712,7 @@
       </c>
       <c r="N108" s="55">
         <f>N105</f>
-        <v>0.11136249096286159</v>
+        <v>0.11205155621428405</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5704,7 +5727,7 @@
       </c>
       <c r="H110" s="50">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>22663840636.435928</v>
+        <v>22454208749.107002</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5731,7 +5754,7 @@
       </c>
       <c r="H113" s="50">
         <f>H110+H111-H112</f>
-        <v>26420050636.435928</v>
+        <v>26210418749.107002</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5749,7 +5772,7 @@
       </c>
       <c r="H115" s="61">
         <f>H113/H114</f>
-        <v>82.891634412938629</v>
+        <v>82.233924478734366</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5758,7 +5781,7 @@
       </c>
       <c r="H116" s="62" cm="1">
         <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>169.65</v>
+        <v>179.35</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5767,7 +5790,7 @@
       </c>
       <c r="H117" s="63">
         <f>H115/H116-1</f>
-        <v>-0.51139620151524534</v>
+        <v>-0.54148913031093193</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Snowflake.xlsx
+++ b/Technology/Software/Snowflake.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088DB28E-5AD5-224F-80C3-A2AAF1F2EDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22598B1-4DD5-F141-8062-25CAC5BF16AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -561,19 +561,22 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
-  </si>
-  <si>
-    <t>Shares (No dilution)</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>4Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>Shares (3% dilution)</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
     <numFmt numFmtId="169" formatCode="0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -701,6 +704,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -875,7 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -928,16 +938,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -961,55 +961,120 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1063,6 +1128,7 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>Snowflake</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1070,8 +1136,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.42892047765552488"/>
-          <c:y val="2.5042686397268071E-2"/>
+          <c:x val="0.42771570247933882"/>
+          <c:y val="2.4530474406337169E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1107,15 +1173,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.5814569536423829E-2"/>
-          <c:y val="0.15840021269787191"/>
-          <c:w val="0.86385430463576174"/>
-          <c:h val="0.68525995256752548"/>
+          <c:x val="9.2284297520661168E-2"/>
+          <c:y val="0.1457416810666507"/>
+          <c:w val="0.8468892561983471"/>
+          <c:h val="0.68294289397306029"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1164,12 +1230,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$F$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>96666000</c:v>
                 </c:pt>
@@ -1185,12 +1290,27 @@
                 <c:pt idx="4">
                   <c:v>2065659000</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3606000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4751000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6537000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8543000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-72B3-3E4A-AC3E-941547BABF04}"/>
+              <c16:uniqueId val="{00000000-A8F5-DA4A-9EC5-5C4D048D973A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1199,11 +1319,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1241,33 +1361,87 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$F$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$K$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-175846000</c:v>
+                  <c:v>-178028000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-344020000</c:v>
+                  <c:v>-348535000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-527214000</c:v>
+                  <c:v>-539102000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-646333000</c:v>
+                  <c:v>-679948000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-711206000</c:v>
+                  <c:v>-796705000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>243300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>368000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>588400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>516000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>791600000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-72B3-3E4A-AC3E-941547BABF04}"/>
+              <c16:uniqueId val="{00000001-A8F5-DA4A-9EC5-5C4D048D973A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1318,12 +1492,51 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$F$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$K$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>-147998000</c:v>
                 </c:pt>
@@ -1339,12 +1552,27 @@
                 <c:pt idx="4">
                   <c:v>496499000</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>544000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>753000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1100000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1865000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2763000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-72B3-3E4A-AC3E-941547BABF04}"/>
+              <c16:uniqueId val="{00000002-A8F5-DA4A-9EC5-5C4D048D973A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1356,13 +1584,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1862005007"/>
-        <c:axId val="1861356575"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1712191840"/>
+        <c:axId val="1756669392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1862005007"/>
+        <c:axId val="1712191840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,7 +1618,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1402,7 +1630,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1861356575"/>
+        <c:crossAx val="1756669392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1410,10 +1638,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1861356575"/>
+        <c:axId val="1756669392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-900000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1459,7 +1686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1862005007"/>
+        <c:crossAx val="1712191840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1477,10 +1704,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35352025864316627"/>
-          <c:y val="0.91007739570402302"/>
-          <c:w val="0.30355550920373364"/>
-          <c:h val="4.6667055064332101E-2"/>
+          <c:x val="0.3431097806989003"/>
+          <c:y val="0.88808429791295396"/>
+          <c:w val="0.31378033448298304"/>
+          <c:h val="6.2854753274371664E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1587,7 +1814,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1825,7 +2052,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2060,22 +2286,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>15876</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1603374</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8843FC44-0718-38F5-21C3-0FDC758489AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA074596-BF1B-ADDB-136C-446F6585B0AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2103,38 +2329,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2270,13 +2496,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>205.66</v>
+    <v>193.94</v>
     <v>119.27</v>
-    <v>1.607</v>
-    <v>4.55</v>
-    <v>2.6030000000000001E-2</v>
-    <v>-4.84</v>
-    <v>-2.6995000000000002E-2</v>
+    <v>1.6140000000000001</v>
+    <v>0.2</v>
+    <v>1.305E-3</v>
+    <v>-1.33</v>
+    <v>-8.6680000000000004E-3</v>
     <v>USD</v>
     <v>Snowflake Inc. is a Data Cloud company. The Company’s platform is the technology that powers the Data Cloud, enabling customers to consolidate data into a single source of truth to drive meaningful business insights, build data applications, and share data and data products. Its platform unifies data and supports a variety of workloads, including data warehousing, data lakes, and Unistore, as well as collaboration, data engineering, cybersecurity, data science and machine learning, and application development. The Company has developed technology across its platform, including managed service, storage, query capabilities, compute model, data sharing, global infrastructure, and integrated security. The Company also provides frictionless and governed data access so users can securely share data inside and outside of their organizations, generally without copying or moving the underlying data.</v>
     <v>5884</v>
@@ -2284,24 +2510,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>106 East Babcock Street, Suite 3A, BOZEMAN, MT, 59715 US</v>
-    <v>181.8</v>
+    <v>158.09</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45132.976447476562</v>
+    <v>45218.999939455469</v>
     <v>0</v>
-    <v>176.31</v>
-    <v>58452711770</v>
+    <v>153.12</v>
+    <v>50585871000</v>
     <v>SNOWFLAKE INC.</v>
     <v>SNOWFLAKE INC.</v>
-    <v>177</v>
-    <v>174.8</v>
-    <v>179.35</v>
-    <v>174.45</v>
-    <v>325914200</v>
+    <v>154.76</v>
+    <v>153.22999999999999</v>
+    <v>153.43</v>
+    <v>152.1</v>
+    <v>329700000</v>
     <v>SNOW</v>
     <v>SNOWFLAKE INC. (XNYS:SNOW)</v>
-    <v>3767866</v>
-    <v>5909333</v>
+    <v>2687485</v>
+    <v>3707196</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2463,9 +2689,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2882,13 +3108,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL118"/>
+  <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G123" sqref="G123"/>
+      <selection pane="bottomRight" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2988,19 +3214,19 @@
         <v>2065659000</v>
       </c>
       <c r="G3" s="25">
-        <v>2753000000</v>
+        <v>2750000000</v>
       </c>
       <c r="H3" s="25">
-        <v>3637000000</v>
+        <v>3606000000</v>
       </c>
       <c r="I3" s="25">
-        <v>4767000000</v>
+        <v>4751000000</v>
       </c>
       <c r="J3" s="25">
-        <v>6664000000</v>
+        <v>6537000000</v>
       </c>
       <c r="K3" s="25">
-        <v>8609000000</v>
+        <v>8543000000</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>107</v>
@@ -3038,23 +3264,23 @@
       </c>
       <c r="G4" s="16">
         <f t="shared" si="0"/>
-        <v>0.3327465956384863</v>
+        <v>0.33129427461163719</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" si="0"/>
-        <v>0.32110424990919006</v>
+        <v>0.31127272727272737</v>
       </c>
       <c r="I4" s="16">
         <f t="shared" si="0"/>
-        <v>0.3106956282650537</v>
+        <v>0.31752634498058785</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.39794419970631423</v>
+        <v>0.37592085876657544</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.29186674669867951</v>
+        <v>0.30686859415634093</v>
       </c>
       <c r="L4" s="17">
         <f>(F4+E4+D4)/3</f>
@@ -3129,16 +3355,20 @@
       <c r="F6" s="10">
         <v>1348119000</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="G6" s="28">
+        <f>G3*G7</f>
+        <v>1859000000.0000002</v>
+      </c>
+      <c r="L6" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="68" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3161,21 +3391,24 @@
       <c r="F7" s="2">
         <v>0.65259999999999996</v>
       </c>
+      <c r="G7" s="2">
+        <v>0.67600000000000005</v>
+      </c>
       <c r="L7" s="17">
-        <f>F7</f>
-        <v>0.65259999999999996</v>
+        <f>G7</f>
+        <v>0.67600000000000005</v>
       </c>
       <c r="M7" s="21">
-        <f>F21</f>
-        <v>-0.34429999999999999</v>
+        <f>G21</f>
+        <v>9.3600000000000003E-2</v>
       </c>
       <c r="N7" s="21">
-        <f>F30</f>
-        <v>-0.38569999999999999</v>
+        <f>G30</f>
+        <v>8.8472727272727272E-2</v>
       </c>
       <c r="O7" s="21">
-        <f>F107/F3</f>
-        <v>0.24035864583651029</v>
+        <f>G107/G3</f>
+        <v>0.19781818181818181</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3443,17 +3676,17 @@
         <f>(F35+E35+D35+C35)/4</f>
         <v>0.20264518659597172</v>
       </c>
-      <c r="M16" s="39">
-        <f>N101/F3</f>
-        <v>28.297367459972822</v>
-      </c>
-      <c r="N16" s="39">
-        <f>N101/F28</f>
-        <v>-73.368074469220105</v>
-      </c>
-      <c r="O16" s="40">
-        <f>N101/F107</f>
-        <v>117.72976737113267</v>
+      <c r="M16" s="33">
+        <f>N102/F3</f>
+        <v>24.488974704924676</v>
+      </c>
+      <c r="N16" s="33">
+        <f>N102/F28</f>
+        <v>-63.493854061415455</v>
+      </c>
+      <c r="O16" s="34">
+        <f>N102/F107</f>
+        <v>101.88514176262188</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3527,36 +3760,36 @@
       <c r="F19" s="10">
         <v>-711206000</v>
       </c>
-      <c r="G19" s="34">
-        <v>238500000</v>
-      </c>
-      <c r="H19" s="34">
-        <v>401200000</v>
-      </c>
-      <c r="I19" s="34">
-        <v>646100000</v>
-      </c>
-      <c r="J19" s="34">
+      <c r="G19" s="28">
+        <v>257400000</v>
+      </c>
+      <c r="H19" s="28">
+        <v>416700000</v>
+      </c>
+      <c r="I19" s="28">
+        <v>691000000</v>
+      </c>
+      <c r="J19" s="28">
         <v>1006000000</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="28">
         <v>1742000000</v>
       </c>
       <c r="L19" s="27">
         <f>F40-F56-F61</f>
         <v>3756210000</v>
       </c>
-      <c r="M19" s="39">
-        <f>N101/G3</f>
-        <v>21.232368968398109</v>
-      </c>
-      <c r="N19" s="39">
-        <f>N101/G28</f>
-        <v>267.64062165750914</v>
-      </c>
-      <c r="O19" s="40">
-        <f>N101/G105</f>
-        <v>-230.08995122286694</v>
+      <c r="M19" s="33">
+        <f>N102/G3</f>
+        <v>18.394862181818183</v>
+      </c>
+      <c r="N19" s="33">
+        <f>N102/G28</f>
+        <v>207.91562268803946</v>
+      </c>
+      <c r="O19" s="34">
+        <f>N102/G105</f>
+        <v>255719017003.67648</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3582,19 +3815,19 @@
       </c>
       <c r="G20" s="16">
         <f t="shared" ref="G20" si="4">(G19/F19)-1</f>
-        <v>-1.3353458772844999</v>
+        <v>-1.3619204562391207</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" ref="H20" si="5">(H19/G19)-1</f>
-        <v>0.68218029350104814</v>
+        <v>0.61888111888111896</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" ref="I20" si="6">(I19/H19)-1</f>
-        <v>0.61041874376869387</v>
+        <v>0.65826733861291098</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" ref="J20" si="7">(J19/I19)-1</f>
-        <v>0.55703451478099364</v>
+        <v>0.45586107091172212</v>
       </c>
       <c r="K20" s="16">
         <f t="shared" ref="K20" si="8">(K19/J19)-1</f>
@@ -3620,28 +3853,31 @@
       <c r="F21" s="2">
         <v>-0.34429999999999999</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="29">
         <f>G19/G3</f>
-        <v>8.6632764257173991E-2</v>
-      </c>
-      <c r="H21" s="35">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="H21" s="29">
         <f t="shared" ref="H21:K21" si="9">H19/H3</f>
-        <v>0.11031069562826505</v>
-      </c>
-      <c r="I21" s="35">
+        <v>0.11555740432612313</v>
+      </c>
+      <c r="I21" s="29">
         <f t="shared" si="9"/>
-        <v>0.13553597650513949</v>
-      </c>
-      <c r="J21" s="35">
+        <v>0.14544306461797515</v>
+      </c>
+      <c r="J21" s="29">
         <f t="shared" si="9"/>
-        <v>0.15096038415366148</v>
-      </c>
-      <c r="K21" s="35">
+        <v>0.15389322319106624</v>
+      </c>
+      <c r="K21" s="29">
         <f t="shared" si="9"/>
-        <v>0.20234638169357649</v>
+        <v>0.20390963361816691</v>
+      </c>
+      <c r="M21" s="43" t="s">
+        <v>166</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O21" s="20" t="s">
         <v>165</v>
@@ -3666,13 +3902,17 @@
       <c r="F22" s="10">
         <v>-842267000</v>
       </c>
-      <c r="N22" s="42">
-        <f>(-1*F98)/N101</f>
+      <c r="M22" s="17">
+        <f>SUM(H29:K29)/4</f>
+        <v>0.38062799679848364</v>
+      </c>
+      <c r="N22" s="36">
+        <f>(-1*F98)/N102</f>
         <v>0</v>
       </c>
-      <c r="O22" s="43">
-        <f>F107/N101</f>
-        <v>8.4940285055315583E-3</v>
+      <c r="O22" s="37">
+        <f>G107/N102</f>
+        <v>1.0753990971115235E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3794,20 +4034,20 @@
       <c r="F28" s="11">
         <v>-796705000</v>
       </c>
-      <c r="G28" s="36">
-        <v>218400000</v>
-      </c>
-      <c r="H28" s="36">
-        <v>347100000</v>
-      </c>
-      <c r="I28" s="36">
-        <v>562600000</v>
-      </c>
-      <c r="J28" s="36">
-        <v>932100000</v>
-      </c>
-      <c r="K28" s="36">
-        <v>1233000000</v>
+      <c r="G28" s="30">
+        <v>243300000</v>
+      </c>
+      <c r="H28" s="30">
+        <v>368000000</v>
+      </c>
+      <c r="I28" s="30">
+        <v>588400000</v>
+      </c>
+      <c r="J28" s="30">
+        <v>516000000</v>
+      </c>
+      <c r="K28" s="30">
+        <v>791600000</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -3833,23 +4073,23 @@
       </c>
       <c r="G29" s="16">
         <f t="shared" ref="G29" si="11">(G28/F28)-1</f>
-        <v>-1.2741290691033695</v>
+        <v>-1.3053827953885064</v>
       </c>
       <c r="H29" s="16">
         <f t="shared" ref="H29" si="12">(H28/G28)-1</f>
-        <v>0.58928571428571419</v>
+        <v>0.51253596383066169</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" ref="I29" si="13">(I28/H28)-1</f>
-        <v>0.62085854220685688</v>
+        <v>0.5989130434782608</v>
       </c>
       <c r="J29" s="16">
         <f t="shared" ref="J29" si="14">(J28/I28)-1</f>
-        <v>0.65677212939921792</v>
+        <v>-0.12304554724677086</v>
       </c>
       <c r="K29" s="16">
         <f t="shared" ref="K29" si="15">(K28/J28)-1</f>
-        <v>0.32281943997425167</v>
+        <v>0.53410852713178292</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3871,25 +4111,25 @@
       <c r="F30" s="2">
         <v>-0.38569999999999999</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="31">
         <f>G28/G3</f>
-        <v>7.9331638212858699E-2</v>
-      </c>
-      <c r="H30" s="37">
+        <v>8.8472727272727272E-2</v>
+      </c>
+      <c r="H30" s="31">
         <f t="shared" ref="H30:K30" si="16">H28/H3</f>
-        <v>9.5435798735221331E-2</v>
-      </c>
-      <c r="I30" s="37">
+        <v>0.10205213533000555</v>
+      </c>
+      <c r="I30" s="31">
         <f t="shared" si="16"/>
-        <v>0.11801971890077617</v>
-      </c>
-      <c r="J30" s="37">
+        <v>0.123847611029257</v>
+      </c>
+      <c r="J30" s="31">
         <f t="shared" si="16"/>
-        <v>0.13987094837935174</v>
-      </c>
-      <c r="K30" s="37">
+        <v>7.8935291418081685E-2</v>
+      </c>
+      <c r="K30" s="31">
         <f t="shared" si="16"/>
-        <v>0.14322220931583227</v>
+        <v>9.2660657848530961E-2</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3911,20 +4151,20 @@
       <c r="F31" s="12">
         <v>-2.5</v>
       </c>
-      <c r="G31" s="38">
-        <v>0.67</v>
-      </c>
-      <c r="H31" s="38">
-        <v>1.07</v>
-      </c>
-      <c r="I31" s="38">
-        <v>1.73</v>
-      </c>
-      <c r="J31" s="38">
-        <v>2.86</v>
-      </c>
-      <c r="K31" s="38">
-        <v>3.78</v>
+      <c r="G31" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="H31" s="32">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I31" s="32">
+        <v>1.81</v>
+      </c>
+      <c r="J31" s="32">
+        <v>1.58</v>
+      </c>
+      <c r="K31" s="32">
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3947,7 +4187,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -3966,8 +4206,12 @@
       <c r="F33" s="1">
         <v>318730000</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" cm="1">
+        <f t="array" ref="G33">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>329700000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -3986,8 +4230,12 @@
       <c r="F34" s="1">
         <v>318730000</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="1" cm="1">
+        <f t="array" ref="G34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>329700000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>102</v>
       </c>
@@ -3997,7 +4245,7 @@
         <v>-0.10086054799308096</v>
       </c>
       <c r="D35" s="23">
-        <f t="shared" ref="D35:F35" si="17">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:G35" si="17">(D34-C34)/C34</f>
         <v>-0.33926703650485202</v>
       </c>
       <c r="E35" s="23">
@@ -4008,8 +4256,12 @@
         <f t="shared" si="17"/>
         <v>1.2507083308818199</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="G35" s="23">
+        <f t="shared" si="17"/>
+        <v>3.4417845825620429E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
@@ -4029,7 +4281,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -4049,7 +4301,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
@@ -4069,7 +4321,7 @@
         <v>939902000</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
@@ -4089,7 +4341,7 @@
         <v>3067966000</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
@@ -4109,7 +4361,7 @@
         <v>4007868000</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -4129,7 +4381,7 @@
         <v>715821000</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
@@ -4149,7 +4401,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>35</v>
       </c>
@@ -4169,7 +4421,7 @@
         <v>261001000</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>36</v>
       </c>
@@ -4189,7 +4441,7 @@
         <v>4984690000</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>37</v>
       </c>
@@ -4209,7 +4461,7 @@
         <v>392089000</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>38</v>
       </c>
@@ -4229,7 +4481,7 @@
         <v>657370000</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -4249,7 +4501,7 @@
         <v>186013000</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>40</v>
       </c>
@@ -4954,7 +5206,7 @@
         <v>-166965000</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -4973,12 +5225,8 @@
       <c r="F83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M83" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="N83" s="67"/>
-    </row>
-    <row r="84" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -4997,12 +5245,18 @@
       <c r="F84" s="1">
         <v>8024000</v>
       </c>
-      <c r="M84" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="N84" s="68"/>
-    </row>
-    <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="44"/>
+      <c r="L84" s="44"/>
+      <c r="M84" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="N84" s="74"/>
+    </row>
+    <row r="85" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -5021,13 +5275,16 @@
       <c r="F85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M85" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="N85" s="45">
-        <f>F17</f>
-        <v>73839000</v>
-      </c>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="44"/>
+      <c r="M85" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="N85" s="75"/>
     </row>
     <row r="86" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -5048,12 +5305,18 @@
       <c r="F86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M86" s="44" t="s">
-        <v>126</v>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="38" t="s">
+        <v>125</v>
       </c>
       <c r="N86" s="45">
-        <f>F56</f>
-        <v>27301000</v>
+        <f>F17</f>
+        <v>73839000</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5075,12 +5338,18 @@
       <c r="F87" s="10">
         <v>545639000</v>
       </c>
-      <c r="M87" s="44" t="s">
-        <v>127</v>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="38" t="s">
+        <v>126</v>
       </c>
       <c r="N87" s="45">
-        <f>F61</f>
-        <v>224357000</v>
+        <f>F56</f>
+        <v>27301000</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5102,12 +5371,18 @@
       <c r="F88" s="1">
         <v>-25128000</v>
       </c>
-      <c r="M88" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="N88" s="47">
-        <f>N85/(N86+N87)</f>
-        <v>0.29341010418901842</v>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="N88" s="45">
+        <f>F61</f>
+        <v>224357000</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5134,12 +5409,18 @@
         <f t="shared" si="19"/>
         <v>1.2164640920887716E-2</v>
       </c>
-      <c r="M89" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="N89" s="45">
-        <f>F27</f>
-        <v>18467000</v>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="44"/>
+      <c r="M89" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="N89" s="46">
+        <f>N86/(N87+N88)</f>
+        <v>0.29341010418901842</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5161,12 +5442,18 @@
       <c r="F90" s="1">
         <v>-362609000</v>
       </c>
-      <c r="M90" s="44" t="s">
-        <v>19</v>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="44"/>
+      <c r="M90" s="38" t="s">
+        <v>105</v>
       </c>
       <c r="N90" s="45">
-        <f>F25</f>
-        <v>-815993000</v>
+        <f>F27</f>
+        <v>18467000</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5188,12 +5475,18 @@
       <c r="F91" s="1">
         <v>-3854886000</v>
       </c>
-      <c r="M91" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="N91" s="47">
-        <f>N89/N90</f>
-        <v>-2.263132159221954E-2</v>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="44"/>
+      <c r="M91" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N91" s="45">
+        <f>F25</f>
+        <v>-815993000</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5215,15 +5508,21 @@
       <c r="F92" s="1">
         <v>3715885000</v>
       </c>
-      <c r="M92" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="N92" s="47">
-        <f>N88*(1-N91)</f>
-        <v>0.30005036261532675</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="44"/>
+      <c r="M92" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="N92" s="46">
+        <f>N90/N91</f>
+        <v>-2.263132159221954E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -5242,12 +5541,21 @@
       <c r="F93" s="1">
         <v>-71147000</v>
       </c>
-      <c r="M93" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="N93" s="68"/>
-    </row>
-    <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="44"/>
+      <c r="M93" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="N93" s="46">
+        <f>N89*(1-N92)</f>
+        <v>0.30005036261532675</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -5266,13 +5574,16 @@
       <c r="F94" s="10">
         <v>-597885000</v>
       </c>
-      <c r="M94" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="N94" s="48">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="44"/>
+      <c r="L94" s="44"/>
+      <c r="M94" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="N94" s="75"/>
     </row>
     <row r="95" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -5293,12 +5604,18 @@
       <c r="F95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M95" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="N95" s="49" cm="1">
-        <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>1.607</v>
+      <c r="G95" s="44"/>
+      <c r="H95" s="44"/>
+      <c r="I95" s="44"/>
+      <c r="J95" s="44"/>
+      <c r="K95" s="44"/>
+      <c r="L95" s="44"/>
+      <c r="M95" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="N95" s="69">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5320,11 +5637,18 @@
       <c r="F96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M96" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="N96" s="48">
-        <v>8.4000000000000005E-2</v>
+      <c r="G96" s="44"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="44"/>
+      <c r="K96" s="44"/>
+      <c r="L96" s="44"/>
+      <c r="M96" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="N96" s="48" cm="1">
+        <f t="array" ref="N96">_FV(A1,"Beta")</f>
+        <v>1.6140000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5346,15 +5670,20 @@
       <c r="F97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M97" s="46" t="s">
-        <v>135</v>
+      <c r="G97" s="44"/>
+      <c r="H97" s="44"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="44"/>
+      <c r="L97" s="44"/>
+      <c r="M97" s="38" t="s">
+        <v>134</v>
       </c>
       <c r="N97" s="47">
-        <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.11124216000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -5373,12 +5702,21 @@
       <c r="F98" s="1">
         <v>0</v>
       </c>
-      <c r="M98" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="N98" s="68"/>
-    </row>
-    <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="G98" s="44"/>
+      <c r="H98" s="44"/>
+      <c r="I98" s="44"/>
+      <c r="J98" s="44"/>
+      <c r="K98" s="44"/>
+      <c r="L98" s="44"/>
+      <c r="M98" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="N98" s="46">
+        <f>(N95)+((N96)*(N97-N95))</f>
+        <v>0.10547772000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -5397,13 +5735,16 @@
       <c r="F99" s="1">
         <v>-92624000</v>
       </c>
-      <c r="M99" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="N99" s="45">
-        <f>N86+N87</f>
-        <v>251658000</v>
-      </c>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
+      <c r="K99" s="44"/>
+      <c r="L99" s="44"/>
+      <c r="M99" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="N99" s="75"/>
     </row>
     <row r="100" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -5424,12 +5765,18 @@
       <c r="F100" s="10">
         <v>-92624000</v>
       </c>
-      <c r="M100" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="N100" s="47">
-        <f>N99/N103</f>
-        <v>4.2868699721329111E-3</v>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="44"/>
+      <c r="K100" s="44"/>
+      <c r="L100" s="44"/>
+      <c r="M100" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="N100" s="45">
+        <f>N87+N88</f>
+        <v>251658000</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5451,12 +5798,18 @@
       <c r="F101" s="1">
         <v>-933000</v>
       </c>
-      <c r="M101" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="N101" s="50" cm="1">
-        <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>58452711770</v>
+      <c r="G101" s="44"/>
+      <c r="H101" s="44"/>
+      <c r="I101" s="44"/>
+      <c r="J101" s="44"/>
+      <c r="K101" s="44"/>
+      <c r="L101" s="44"/>
+      <c r="M101" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="N101" s="46">
+        <f>N100/N104</f>
+        <v>4.9502405988300496E-3</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5478,12 +5831,18 @@
       <c r="F102" s="10">
         <v>-145803000</v>
       </c>
-      <c r="M102" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="N102" s="47">
-        <f>N101/N103</f>
-        <v>0.9957131300278671</v>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44"/>
+      <c r="K102" s="44"/>
+      <c r="L102" s="44"/>
+      <c r="M102" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="N102" s="49" cm="1">
+        <f t="array" ref="N102">_FV(A1,"Market cap",TRUE)</f>
+        <v>50585871000</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5505,16 +5864,21 @@
       <c r="F103" s="1">
         <v>1102534000</v>
       </c>
-      <c r="L103" s="32"/>
-      <c r="M103" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="N103" s="51">
-        <f>N99+N101</f>
-        <v>58704369770</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
+      <c r="J103" s="44"/>
+      <c r="K103" s="44"/>
+      <c r="L103" s="44"/>
+      <c r="M103" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="N103" s="46">
+        <f>N102/N104</f>
+        <v>0.99504975940116991</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -5533,18 +5897,23 @@
       <c r="F104" s="11">
         <v>956731000</v>
       </c>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="16"/>
-      <c r="L104" s="16"/>
-      <c r="M104" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="N104" s="68"/>
-    </row>
-    <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G104" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="H104" s="77"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="77"/>
+      <c r="K104" s="77"/>
+      <c r="L104" s="44"/>
+      <c r="M104" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="N104" s="50">
+        <f>N100+N102</f>
+        <v>50837529000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>159</v>
       </c>
@@ -5568,86 +5937,89 @@
         <f>(F22*(1-0.2))+F77+F88+F81</f>
         <v>-190884600</v>
       </c>
-      <c r="G105" s="30">
-        <f>F105*(1+$N$106)</f>
-        <v>-254042870.88305843</v>
-      </c>
-      <c r="H105" s="30">
-        <f t="shared" ref="H105:K105" si="21">G105*(1+$N$106)</f>
-        <v>-338098412.58281857</v>
-      </c>
-      <c r="I105" s="30">
-        <f t="shared" si="21"/>
-        <v>-449965536.10686243</v>
-      </c>
-      <c r="J105" s="30">
-        <f t="shared" si="21"/>
-        <v>-598846300.80698919</v>
-      </c>
-      <c r="K105" s="30">
-        <f t="shared" si="21"/>
-        <v>-796987465.06898475</v>
-      </c>
-      <c r="L105" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="M105" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="N105" s="53">
-        <f>(N100*N92)+(N102*N97)</f>
-        <v>0.11205155621428405</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="G105" s="70">
+        <f>G107/G3</f>
+        <v>0.19781818181818181</v>
+      </c>
+      <c r="H105" s="70">
+        <f>H107/H3</f>
+        <v>0.20881863560732114</v>
+      </c>
+      <c r="I105" s="70">
+        <f>I107/I3</f>
+        <v>0.23153020416754366</v>
+      </c>
+      <c r="J105" s="70">
+        <f>J107/J3</f>
+        <v>0.28529906685023709</v>
+      </c>
+      <c r="K105" s="70">
+        <f>K107/K3</f>
+        <v>0.32342268523937728</v>
+      </c>
+      <c r="L105" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="M105" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="N105" s="75"/>
+    </row>
+    <row r="106" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:K106" si="21">(C107/B107)-1</f>
         <v>0.34735604535196418</v>
       </c>
       <c r="D106" s="15">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="21"/>
         <v>-0.5279931396246853</v>
       </c>
       <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="21"/>
         <v>-1.6040309813962876</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="21"/>
         <v>7.7331844086399784</v>
       </c>
-      <c r="G106" s="31">
-        <v>516000000</v>
-      </c>
-      <c r="H106" s="31">
-        <v>738900000</v>
-      </c>
-      <c r="I106" s="31">
-        <v>1044000000</v>
-      </c>
-      <c r="J106" s="31">
-        <v>1734000000</v>
-      </c>
-      <c r="K106" s="31">
-        <v>2596000000</v>
-      </c>
-      <c r="L106" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="M106" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="N106" s="55">
-        <f>(SUM(G4:K4)/5)</f>
-        <v>0.33087148404354477</v>
+      <c r="G106" s="52">
+        <f t="shared" si="21"/>
+        <v>9.5671894606031538E-2</v>
+      </c>
+      <c r="H106" s="52">
+        <f t="shared" si="21"/>
+        <v>0.38419117647058831</v>
+      </c>
+      <c r="I106" s="52">
+        <f t="shared" si="21"/>
+        <v>0.46082337317397082</v>
+      </c>
+      <c r="J106" s="52">
+        <f t="shared" si="21"/>
+        <v>0.69545454545454555</v>
+      </c>
+      <c r="K106" s="52">
+        <f t="shared" si="21"/>
+        <v>0.48150134048257365</v>
+      </c>
+      <c r="L106" s="53">
+        <f>SUM(G106:K106)/5</f>
+        <v>0.42352846603754202</v>
+      </c>
+      <c r="M106" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="N106" s="54">
+        <f>(N101*N93)+(N103*N98)</f>
+        <v>0.10644090139489605</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="41" t="s">
+      <c r="A107" s="35" t="s">
         <v>161</v>
       </c>
       <c r="B107" s="1">
@@ -5665,151 +6037,239 @@
       <c r="F107" s="1">
         <v>496499000</v>
       </c>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28"/>
-      <c r="K107" s="33">
-        <f>K106*(1+N107)/(N108-N107)</f>
-        <v>30566943495.530304</v>
-      </c>
-      <c r="L107" s="29" t="s">
+      <c r="G107" s="55">
+        <v>544000000</v>
+      </c>
+      <c r="H107" s="55">
+        <v>753000000</v>
+      </c>
+      <c r="I107" s="55">
+        <v>1100000000</v>
+      </c>
+      <c r="J107" s="55">
+        <v>1865000000</v>
+      </c>
+      <c r="K107" s="55">
+        <v>2763000000</v>
+      </c>
+      <c r="L107" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="M107" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="N107" s="41">
+        <f>(SUM(G4:K4)/5)</f>
+        <v>0.32857655995757373</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+      <c r="G108" s="72"/>
+      <c r="H108" s="72"/>
+      <c r="I108" s="72"/>
+      <c r="J108" s="72"/>
+      <c r="K108" s="57">
+        <f>K107*(1+N108)/(N109-N108)</f>
+        <v>34774602828.468788</v>
+      </c>
+      <c r="L108" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="M107" s="56" t="s">
+      <c r="M108" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="N107" s="57">
+      <c r="N108" s="42">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G108" s="33">
-        <f t="shared" ref="G108:J108" si="22">G107+G106</f>
-        <v>516000000</v>
-      </c>
-      <c r="H108" s="33">
+    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+      <c r="G109" s="57">
+        <f t="shared" ref="G109:J109" si="22">G108+G107</f>
+        <v>544000000</v>
+      </c>
+      <c r="H109" s="57">
         <f t="shared" si="22"/>
-        <v>738900000</v>
-      </c>
-      <c r="I108" s="33">
+        <v>753000000</v>
+      </c>
+      <c r="I109" s="57">
         <f t="shared" si="22"/>
-        <v>1044000000</v>
-      </c>
-      <c r="J108" s="33">
+        <v>1100000000</v>
+      </c>
+      <c r="J109" s="57">
         <f t="shared" si="22"/>
-        <v>1734000000</v>
-      </c>
-      <c r="K108" s="33">
-        <f>K107+K106</f>
-        <v>33162943495.530304</v>
-      </c>
-      <c r="L108" s="29" t="s">
+        <v>1865000000</v>
+      </c>
+      <c r="K109" s="57">
+        <f>K108+K107</f>
+        <v>37537602828.468788</v>
+      </c>
+      <c r="L109" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="M108" s="58" t="s">
+      <c r="M109" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="N108" s="55">
-        <f>N105</f>
-        <v>0.11205155621428405</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="65" t="s">
+      <c r="N109" s="41">
+        <f>N106</f>
+        <v>0.10644090139489605</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+      <c r="G110" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="H109" s="65"/>
-    </row>
-    <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G110" s="59" t="s">
+      <c r="H110" s="76"/>
+      <c r="I110" s="44"/>
+      <c r="J110" s="44"/>
+      <c r="K110" s="44"/>
+      <c r="L110" s="44"/>
+      <c r="M110" s="44"/>
+      <c r="N110" s="44"/>
+    </row>
+    <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G111" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="H110" s="50">
-        <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>22454208749.107002</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G111" s="59" t="s">
+      <c r="H111" s="49">
+        <f>NPV(N109,G109,H109,I109,J109,K109)</f>
+        <v>25800612303.559452</v>
+      </c>
+      <c r="I111" s="44"/>
+      <c r="J111" s="44"/>
+      <c r="K111" s="44"/>
+      <c r="L111" s="44"/>
+      <c r="M111" s="44"/>
+      <c r="N111" s="44"/>
+    </row>
+    <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G112" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="H111" s="50">
+      <c r="H112" s="49">
         <f>F40</f>
         <v>4007868000</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G112" s="59" t="s">
+      <c r="I112" s="44"/>
+      <c r="J112" s="44"/>
+      <c r="K112" s="44"/>
+      <c r="L112" s="44"/>
+      <c r="M112" s="44"/>
+      <c r="N112" s="44"/>
+    </row>
+    <row r="113" spans="7:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G113" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="H112" s="50">
-        <f>N99</f>
+      <c r="H113" s="49">
+        <f>N100</f>
         <v>251658000</v>
       </c>
-    </row>
-    <row r="113" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G113" s="59" t="s">
+      <c r="I113" s="44"/>
+      <c r="J113" s="44"/>
+      <c r="K113" s="44"/>
+      <c r="L113" s="44"/>
+      <c r="M113" s="44"/>
+      <c r="N113" s="44"/>
+    </row>
+    <row r="114" spans="7:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G114" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="H113" s="50">
-        <f>H110+H111-H112</f>
-        <v>26210418749.107002</v>
-      </c>
-    </row>
-    <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G114" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="H114" s="59">
-        <f>F34*(1+(5*0))</f>
-        <v>318730000</v>
-      </c>
-    </row>
-    <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G115" s="60" t="s">
+      <c r="H114" s="49">
+        <f>H111+H112-H113</f>
+        <v>29556822303.559452</v>
+      </c>
+      <c r="I114" s="44"/>
+      <c r="J114" s="44"/>
+      <c r="K114" s="44"/>
+      <c r="L114" s="44"/>
+      <c r="M114" s="44"/>
+      <c r="N114" s="44"/>
+    </row>
+    <row r="115" spans="7:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G115" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="H115" s="61">
+        <f>F34*(1+(5*0.03))</f>
+        <v>366539500</v>
+      </c>
+      <c r="I115" s="44"/>
+      <c r="J115" s="44"/>
+      <c r="K115" s="44"/>
+      <c r="L115" s="44"/>
+      <c r="M115" s="44"/>
+      <c r="N115" s="44"/>
+    </row>
+    <row r="116" spans="7:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G116" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="H115" s="61">
-        <f>H113/H114</f>
-        <v>82.233924478734366</v>
-      </c>
-    </row>
-    <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G116" s="59" t="s">
+      <c r="H116" s="63">
+        <f>H114/H115</f>
+        <v>80.637481918209232</v>
+      </c>
+      <c r="I116" s="44"/>
+      <c r="J116" s="44"/>
+      <c r="K116" s="44"/>
+      <c r="L116" s="44"/>
+      <c r="M116" s="44"/>
+      <c r="N116" s="44"/>
+    </row>
+    <row r="117" spans="7:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G117" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="H116" s="62" cm="1">
-        <f t="array" ref="H116">_FV(A1,"Price")</f>
-        <v>179.35</v>
-      </c>
-    </row>
-    <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G117" s="60" t="s">
+      <c r="H117" s="64" cm="1">
+        <f t="array" ref="H117">_FV(A1,"Price")</f>
+        <v>153.43</v>
+      </c>
+      <c r="I117" s="44"/>
+      <c r="J117" s="44"/>
+      <c r="K117" s="44"/>
+      <c r="L117" s="44"/>
+      <c r="M117" s="44"/>
+      <c r="N117" s="44"/>
+    </row>
+    <row r="118" spans="7:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G118" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="H117" s="63">
-        <f>H115/H116-1</f>
-        <v>-0.54148913031093193</v>
-      </c>
-    </row>
-    <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G118" s="60" t="s">
+      <c r="H118" s="65">
+        <f>H116/H117-1</f>
+        <v>-0.47443471343147214</v>
+      </c>
+      <c r="I118" s="44"/>
+      <c r="J118" s="44"/>
+      <c r="K118" s="44"/>
+      <c r="L118" s="44"/>
+      <c r="M118" s="44"/>
+      <c r="N118" s="44"/>
+    </row>
+    <row r="119" spans="7:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="G119" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="H118" s="64" t="str">
-        <f>IF(H115&gt;H116,"BUY","SELL")</f>
+      <c r="H119" s="66" t="str">
+        <f>IF(H116&gt;H117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="I119" s="44"/>
+      <c r="J119" s="44"/>
+      <c r="K119" s="44"/>
+      <c r="L119" s="44"/>
+      <c r="M119" s="44"/>
+      <c r="N119" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="M83:N83"/>
+  <mergeCells count="7">
     <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G104:K104"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="M94:N94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/SNOW" display="ROIC.AI | SNOW" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5824,7 +6284,7 @@
     <hyperlink ref="F36" r:id="rId10" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="F74" r:id="rId11" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="G1" r:id="rId12" display="https://finbox.com/NYSE:SNOW/explorer/revenue_proj" xr:uid="{FA4426A0-FAF6-4642-9E9F-62F1F6F87EC2}"/>
-    <hyperlink ref="L106" r:id="rId13" xr:uid="{62066282-E17A-134B-970B-FE2867700054}"/>
+    <hyperlink ref="L107" r:id="rId13" xr:uid="{62066282-E17A-134B-970B-FE2867700054}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId14"/>

--- a/Technology/Software/Snowflake.xlsx
+++ b/Technology/Software/Snowflake.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22598B1-4DD5-F141-8062-25CAC5BF16AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9575F261-B2AC-B64B-91C9-C22B28BC439C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2332,13 +2332,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2354,14 +2356,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2371,6 +2373,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2498,11 +2502,11 @@
     <v>Powered by Refinitiv</v>
     <v>193.94</v>
     <v>119.27</v>
-    <v>1.6140000000000001</v>
-    <v>0.2</v>
-    <v>1.305E-3</v>
-    <v>-1.33</v>
-    <v>-8.6680000000000004E-3</v>
+    <v>1.627</v>
+    <v>2.54</v>
+    <v>1.8035000000000002E-2</v>
+    <v>0.22</v>
+    <v>1.534E-3</v>
     <v>USD</v>
     <v>Snowflake Inc. is a Data Cloud company. The Company’s platform is the technology that powers the Data Cloud, enabling customers to consolidate data into a single source of truth to drive meaningful business insights, build data applications, and share data and data products. Its platform unifies data and supports a variety of workloads, including data warehousing, data lakes, and Unistore, as well as collaboration, data engineering, cybersecurity, data science and machine learning, and application development. The Company has developed technology across its platform, including managed service, storage, query capabilities, compute model, data sharing, global infrastructure, and integrated security. The Company also provides frictionless and governed data access so users can securely share data inside and outside of their organizations, generally without copying or moving the underlying data.</v>
     <v>5884</v>
@@ -2510,24 +2514,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>106 East Babcock Street, Suite 3A, BOZEMAN, MT, 59715 US</v>
-    <v>158.09</v>
+    <v>145.38999999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45218.999939455469</v>
+    <v>45226.999901978903</v>
     <v>0</v>
-    <v>153.12</v>
-    <v>50585871000</v>
+    <v>141.88999999999999</v>
+    <v>47272390000</v>
     <v>SNOWFLAKE INC.</v>
     <v>SNOWFLAKE INC.</v>
-    <v>154.76</v>
-    <v>153.22999999999999</v>
-    <v>153.43</v>
-    <v>152.1</v>
+    <v>144.1</v>
+    <v>140.84</v>
+    <v>143.38</v>
+    <v>143.6</v>
     <v>329700000</v>
     <v>SNOW</v>
     <v>SNOWFLAKE INC. (XNYS:SNOW)</v>
-    <v>2687485</v>
-    <v>3707196</v>
+    <v>3393761</v>
+    <v>3474727</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2689,9 +2693,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3114,7 +3118,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H95" sqref="H95"/>
+      <selection pane="bottomRight" activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3678,15 +3682,15 @@
       </c>
       <c r="M16" s="33">
         <f>N102/F3</f>
-        <v>24.488974704924676</v>
+        <v>22.884895328803061</v>
       </c>
       <c r="N16" s="33">
         <f>N102/F28</f>
-        <v>-63.493854061415455</v>
+        <v>-59.334873008202536</v>
       </c>
       <c r="O16" s="34">
         <f>N102/F107</f>
-        <v>101.88514176262188</v>
+        <v>95.211450576939725</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -3781,15 +3785,15 @@
       </c>
       <c r="M19" s="33">
         <f>N102/G3</f>
-        <v>18.394862181818183</v>
+        <v>17.189959999999999</v>
       </c>
       <c r="N19" s="33">
         <f>N102/G28</f>
-        <v>207.91562268803946</v>
+        <v>194.29671187833949</v>
       </c>
       <c r="O19" s="34">
-        <f>N102/G105</f>
-        <v>255719017003.67648</v>
+        <f>N102/G107</f>
+        <v>86.897775735294118</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3912,7 +3916,7 @@
       </c>
       <c r="O22" s="37">
         <f>G107/N102</f>
-        <v>1.0753990971115235E-2</v>
+        <v>1.1507774411236665E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5615,7 +5619,7 @@
       </c>
       <c r="N95" s="69">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5648,7 +5652,7 @@
       </c>
       <c r="N96" s="48" cm="1">
         <f t="array" ref="N96">_FV(A1,"Beta")</f>
-        <v>1.6140000000000001</v>
+        <v>1.627</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5713,7 +5717,7 @@
       </c>
       <c r="N98" s="46">
         <f>(N95)+((N96)*(N97-N95))</f>
-        <v>0.10547772000000001</v>
+        <v>0.10628985000000001</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5809,7 +5813,7 @@
       </c>
       <c r="N101" s="46">
         <f>N100/N104</f>
-        <v>4.9502405988300496E-3</v>
+        <v>5.2953822452161481E-3</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5842,7 +5846,7 @@
       </c>
       <c r="N102" s="49" cm="1">
         <f t="array" ref="N102">_FV(A1,"Market cap",TRUE)</f>
-        <v>50585871000</v>
+        <v>47272390000</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5875,7 +5879,7 @@
       </c>
       <c r="N103" s="46">
         <f>N102/N104</f>
-        <v>0.99504975940116991</v>
+        <v>0.9947046177547838</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5910,7 +5914,7 @@
       </c>
       <c r="N104" s="50">
         <f>N100+N102</f>
-        <v>50837529000</v>
+        <v>47524048000</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -6015,7 +6019,7 @@
       </c>
       <c r="N106" s="54">
         <f>(N101*N93)+(N103*N98)</f>
-        <v>0.10644090139489605</v>
+        <v>0.10731588597832718</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -6070,7 +6074,7 @@
       <c r="J108" s="72"/>
       <c r="K108" s="57">
         <f>K107*(1+N108)/(N109-N108)</f>
-        <v>34774602828.468788</v>
+        <v>34404962861.550835</v>
       </c>
       <c r="L108" s="58" t="s">
         <v>144</v>
@@ -6101,7 +6105,7 @@
       </c>
       <c r="K109" s="57">
         <f>K108+K107</f>
-        <v>37537602828.468788</v>
+        <v>37167962861.550835</v>
       </c>
       <c r="L109" s="58" t="s">
         <v>141</v>
@@ -6111,7 +6115,7 @@
       </c>
       <c r="N109" s="41">
         <f>N106</f>
-        <v>0.10644090139489605</v>
+        <v>0.10731588597832718</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="19" x14ac:dyDescent="0.2">
@@ -6132,7 +6136,7 @@
       </c>
       <c r="H111" s="49">
         <f>NPV(N109,G109,H109,I109,J109,K109)</f>
-        <v>25800612303.559452</v>
+        <v>25482067752.622871</v>
       </c>
       <c r="I111" s="44"/>
       <c r="J111" s="44"/>
@@ -6177,7 +6181,7 @@
       </c>
       <c r="H114" s="49">
         <f>H111+H112-H113</f>
-        <v>29556822303.559452</v>
+        <v>29238277752.622871</v>
       </c>
       <c r="I114" s="44"/>
       <c r="J114" s="44"/>
@@ -6191,8 +6195,8 @@
         <v>167</v>
       </c>
       <c r="H115" s="61">
-        <f>F34*(1+(5*0.03))</f>
-        <v>366539500</v>
+        <f>F34*(1+(5*G35))</f>
+        <v>373580000</v>
       </c>
       <c r="I115" s="44"/>
       <c r="J115" s="44"/>
@@ -6207,7 +6211,7 @@
       </c>
       <c r="H116" s="63">
         <f>H114/H115</f>
-        <v>80.637481918209232</v>
+        <v>78.265104536171293</v>
       </c>
       <c r="I116" s="44"/>
       <c r="J116" s="44"/>
@@ -6222,7 +6226,7 @@
       </c>
       <c r="H117" s="64" cm="1">
         <f t="array" ref="H117">_FV(A1,"Price")</f>
-        <v>153.43</v>
+        <v>143.38</v>
       </c>
       <c r="I117" s="44"/>
       <c r="J117" s="44"/>
@@ -6237,7 +6241,7 @@
       </c>
       <c r="H118" s="65">
         <f>H116/H117-1</f>
-        <v>-0.47443471343147214</v>
+        <v>-0.45414210813104128</v>
       </c>
       <c r="I118" s="44"/>
       <c r="J118" s="44"/>

--- a/Technology/Software/Snowflake.xlsx
+++ b/Technology/Software/Snowflake.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02E93F6-5D3F-6249-A244-72482C4033FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DA155C-5A20-DC4A-A9A8-6091E4689D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1557,7 +1557,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.6689999999999995E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1696,11 +1696,11 @@
     <v>Powered by Refinitiv</v>
     <v>193.94</v>
     <v>119.27</v>
-    <v>1.647</v>
-    <v>7.24</v>
-    <v>5.0717999999999999E-2</v>
-    <v>-0.1</v>
-    <v>-6.6669999999999989E-4</v>
+    <v>1.6779999999999999</v>
+    <v>-2.2400000000000002</v>
+    <v>-1.4125E-2</v>
+    <v>-0.55000000000000004</v>
+    <v>-3.5179999999999999E-3</v>
     <v>USD</v>
     <v>Snowflake Inc. is a Data Cloud company. The Company’s platform is the technology that powers the Data Cloud, enabling customers to consolidate data into a single source of truth to drive meaningful business insights, build data applications, and share data and data products. Its platform unifies data and supports a variety of workloads, including data warehousing, data lakes, and Unistore, as well as collaboration, data engineering, cybersecurity, data science and machine learning, and application development. The Company has developed technology across its platform, including managed service, storage, query capabilities, compute model, data sharing, global infrastructure, and integrated security. The Company also provides frictionless and governed data access so users can securely share data inside and outside of their organizations, generally without copying or moving the underlying data.</v>
     <v>5884</v>
@@ -1708,24 +1708,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>106 East Babcock Street, Suite 3A, BOZEMAN, MT, 59715 US</v>
-    <v>150.28</v>
+    <v>162.398</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45233.999755358593</v>
+    <v>45239.972219142968</v>
     <v>0</v>
-    <v>142.72</v>
-    <v>49451700000</v>
+    <v>156.11000000000001</v>
+    <v>51545298000</v>
     <v>SNOWFLAKE INC.</v>
     <v>SNOWFLAKE INC.</v>
-    <v>143</v>
-    <v>142.75</v>
-    <v>149.99</v>
-    <v>149.88999999999999</v>
+    <v>159.5</v>
+    <v>158.58000000000001</v>
+    <v>156.34</v>
+    <v>155.80000000000001</v>
     <v>329700000</v>
     <v>SNOW</v>
     <v>SNOWFLAKE INC. (XNYS:SNOW)</v>
-    <v>5105651</v>
-    <v>3507352</v>
+    <v>3976303</v>
+    <v>3985438</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -1887,9 +1887,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -9141,7 +9141,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9190,7 +9190,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>49451700000</v>
+        <v>51545298000</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>193</v>
@@ -9218,7 +9218,7 @@
       </c>
       <c r="I3" s="39">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>35540563455.666237</v>
+        <v>34685998687.917068</v>
       </c>
       <c r="J3" s="40" t="s">
         <v>197</v>
@@ -9263,7 +9263,7 @@
       </c>
       <c r="I4" s="50">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>26511042443.144585</v>
+        <v>25773820811.510914</v>
       </c>
       <c r="J4" s="47" t="s">
         <v>203</v>
@@ -9313,14 +9313,14 @@
       </c>
       <c r="I5" s="50">
         <f>I4+G5-G6</f>
-        <v>29966323443.144585</v>
+        <v>29229101811.510914</v>
       </c>
       <c r="J5" s="47" t="s">
         <v>210</v>
       </c>
       <c r="K5" s="53" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>149.99</v>
+        <v>156.34</v>
       </c>
       <c r="L5" s="35" t="s">
         <v>211</v>
@@ -9338,7 +9338,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="56">
         <f>O20/F10</f>
-        <v>17.982436363636364</v>
+        <v>18.743744727272727</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>213</v>
@@ -9366,14 +9366,14 @@
       </c>
       <c r="I6" s="58">
         <f>N25</f>
-        <v>0.10448382707898869</v>
+        <v>0.10644208345899692</v>
       </c>
       <c r="J6" s="49" t="s">
         <v>216</v>
       </c>
       <c r="K6" s="59">
         <f>I5/G4</f>
-        <v>78.302771411521988</v>
+        <v>76.376392387716621</v>
       </c>
       <c r="L6" s="60" t="s">
         <v>217</v>
@@ -9391,14 +9391,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="63">
         <f>O20/F12</f>
-        <v>196.23690476190475</v>
+        <v>204.54483333333334</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>219</v>
       </c>
       <c r="C7" s="65">
         <f>F14/A3</f>
-        <v>1.0980411189099667E-2</v>
+        <v>1.0534423527825952E-2</v>
       </c>
       <c r="D7" s="66" t="s">
         <v>220</v>
@@ -9425,7 +9425,7 @@
       </c>
       <c r="K7" s="72">
         <f>K6/K5-1</f>
-        <v>-0.47794672037121155</v>
+        <v>-0.51147248056980543</v>
       </c>
       <c r="L7" s="73" t="s">
         <v>223</v>
@@ -9730,7 +9730,7 @@
       </c>
       <c r="O14" s="91">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.6689999999999995E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
       <c r="P14" s="43"/>
     </row>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="O15" s="95" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.647</v>
+        <v>1.6779999999999999</v>
       </c>
       <c r="P15" s="43"/>
     </row>
@@ -9835,7 +9835,7 @@
       </c>
       <c r="O17" s="102">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.10813957000000002</v>
+        <v>0.10996062000000001</v>
       </c>
       <c r="P17" s="43"/>
     </row>
@@ -9912,7 +9912,7 @@
       </c>
       <c r="O20" s="104">
         <f>A3</f>
-        <v>49451700000</v>
+        <v>51545298000</v>
       </c>
       <c r="P20" s="43"/>
     </row>
@@ -9934,7 +9934,7 @@
       </c>
       <c r="O21" s="104">
         <f>O19+O20</f>
-        <v>49748552000</v>
+        <v>51842150000</v>
       </c>
       <c r="P21" s="43"/>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="O22" s="105">
         <f>(O19/O21)</f>
-        <v>5.9670480459411163E-3</v>
+        <v>5.7260742465349143E-3</v>
       </c>
       <c r="P22" s="43"/>
     </row>
@@ -9980,7 +9980,7 @@
       </c>
       <c r="O23" s="106">
         <f>O20/O21</f>
-        <v>0.99403295195405883</v>
+        <v>0.99427392575346507</v>
       </c>
       <c r="P23" s="43"/>
     </row>
@@ -10020,7 +10020,7 @@
       <c r="M25" s="82"/>
       <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.10448382707898869</v>
+        <v>0.10644208345899692</v>
       </c>
       <c r="O25" s="111"/>
       <c r="P25" s="43"/>

--- a/Technology/Software/Snowflake.xlsx
+++ b/Technology/Software/Snowflake.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DA155C-5A20-DC4A-A9A8-6091E4689D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D813AA99-CB74-B240-A920-B6D42818ADCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="245">
   <si>
     <t>2019 Y</t>
   </si>
@@ -803,6 +803,12 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -815,7 +821,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -959,6 +965,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1042,7 +1054,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1087,76 +1099,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1164,13 +1108,213 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,7 +1324,29 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1188,7 +1354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1251,35 +1417,35 @@
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="11" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1288,221 +1454,224 @@
     <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="15" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="2" fontId="15" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1540,6 +1709,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1557,7 +1727,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1569,6 +1739,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1696,11 +1867,11 @@
     <v>Powered by Refinitiv</v>
     <v>193.94</v>
     <v>119.27</v>
-    <v>1.6779999999999999</v>
-    <v>-2.2400000000000002</v>
-    <v>-1.4125E-2</v>
-    <v>-0.55000000000000004</v>
-    <v>-3.5179999999999999E-3</v>
+    <v>1.67</v>
+    <v>-1.72</v>
+    <v>-9.1649999999999995E-3</v>
+    <v>-0.42</v>
+    <v>-2.258E-3</v>
     <v>USD</v>
     <v>Snowflake Inc. is a Data Cloud company. The Company’s platform is the technology that powers the Data Cloud, enabling customers to consolidate data into a single source of truth to drive meaningful business insights, build data applications, and share data and data products. Its platform unifies data and supports a variety of workloads, including data warehousing, data lakes, and Unistore, as well as collaboration, data engineering, cybersecurity, data science and machine learning, and application development. The Company has developed technology across its platform, including managed service, storage, query capabilities, compute model, data sharing, global infrastructure, and integrated security. The Company also provides frictionless and governed data access so users can securely share data inside and outside of their organizations, generally without copying or moving the underlying data.</v>
     <v>5884</v>
@@ -1708,24 +1879,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>106 East Babcock Street, Suite 3A, BOZEMAN, MT, 59715 US</v>
-    <v>162.398</v>
+    <v>188.56</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45239.972219142968</v>
+    <v>45261.895147048439</v>
     <v>0</v>
-    <v>156.11000000000001</v>
-    <v>51545298000</v>
+    <v>180.8</v>
+    <v>61314310000</v>
     <v>SNOWFLAKE INC.</v>
     <v>SNOWFLAKE INC.</v>
-    <v>159.5</v>
-    <v>158.58000000000001</v>
-    <v>156.34</v>
-    <v>155.80000000000001</v>
+    <v>185.25</v>
+    <v>187.68</v>
+    <v>185.96</v>
+    <v>185.55</v>
     <v>329700000</v>
     <v>SNOW</v>
     <v>SNOWFLAKE INC. (XNYS:SNOW)</v>
-    <v>3976303</v>
-    <v>3985438</v>
+    <v>10315162</v>
+    <v>5138894</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2333,9 +2504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K196"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" workbookViewId="0">
+    <sheetView topLeftCell="A117" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E176" sqref="E176"/>
+      <selection pane="topRight" activeCell="F175" sqref="F175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9138,1739 +9309,1980 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A88BB22-8852-D847-B385-5A40321F64CA}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="18.83203125" customWidth="1"/>
+    <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="e" vm="1">
+    <row r="1" spans="1:19" s="112" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="111" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-    </row>
-    <row r="2" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-    </row>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" cm="1">
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+    </row>
+    <row r="2" spans="1:19" s="112" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+    </row>
+    <row r="3" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="44" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>51545298000</v>
-      </c>
-      <c r="B3" s="35" t="s">
+        <v>61314310000</v>
+      </c>
+      <c r="B3" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="46">
         <f>Financials!G8*0.01</f>
         <v>0.66269999999999996</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="46">
         <f>SUM(C11:E11)/3</f>
         <v>0.99662496868267436</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="G3" s="38">
-        <f>AVERAGE(Financials!C129:G129)</f>
-        <v>3.2149299619989691E-2</v>
-      </c>
-      <c r="H3" s="37" t="s">
+      <c r="G3" s="48">
+        <f>AVERAGE(Financials!F129:K129)</f>
+        <v>7.1913932624784E-3</v>
+      </c>
+      <c r="H3" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="I3" s="39">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>34685998687.917068</v>
-      </c>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="49">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>34572667537.575478</v>
+      </c>
+      <c r="J3" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="114" t="s">
+      <c r="K3" s="51">
+        <f>(Financials!G172*-1)/Model!A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="M3" s="34"/>
+      <c r="N3" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="43"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44">
+      <c r="O3" s="114"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+    </row>
+    <row r="4" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="53">
         <f>Financials!G56-Financials!G96-Financials!G105</f>
         <v>3455281000</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="36">
         <f>Financials!G17*0.01</f>
         <v>-0.41100000000000003</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="36">
         <f>SUM(C13:E13)/3</f>
         <v>0.32658024734885066</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="56">
         <f>A5*(1+(5*G3))</f>
-        <v>382698120.42355299</v>
-      </c>
-      <c r="H4" s="49" t="s">
+        <v>341555011.79319566</v>
+      </c>
+      <c r="H4" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="I4" s="50">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>25773820811.510914</v>
-      </c>
-      <c r="J4" s="47" t="s">
+      <c r="I4" s="35">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>25498908232.598698</v>
+      </c>
+      <c r="J4" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="K4" s="51">
-        <f>(Financials!G172*-1)/Model!A3</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="116" t="s">
+      <c r="K4" s="57" cm="1">
+        <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
+        <v>-9.1649999999999995E-3</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="M4" s="34"/>
+      <c r="N4" s="115" t="s">
         <v>205</v>
       </c>
-      <c r="O4" s="117"/>
-      <c r="P4" s="43"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" cm="1">
+      <c r="O4" s="116"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+    </row>
+    <row r="5" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="53" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>329700000</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="52">
-        <f>Financials!G34*0.01</f>
-        <v>-0.35220000000000001</v>
-      </c>
-      <c r="D5" s="45" t="s">
+      <c r="C5" s="36">
+        <f>F14</f>
+        <v>9.1636363636363641E-2</v>
+      </c>
+      <c r="D5" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="E5" s="46">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="36">
+        <f>SUM(C16:E16)/3</f>
         <v>1.3791221767038617</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="56">
         <f>Financials!G56</f>
         <v>3752133000</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="35">
         <f>I4+G5-G6</f>
-        <v>29229101811.510914</v>
-      </c>
-      <c r="J5" s="47" t="s">
+        <v>28954189232.598698</v>
+      </c>
+      <c r="J5" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="K5" s="53" cm="1">
+      <c r="K5" s="60" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>156.34</v>
-      </c>
-      <c r="L5" s="35" t="s">
+        <v>185.96</v>
+      </c>
+      <c r="L5" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="M5" s="43"/>
-      <c r="N5" s="54" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="95" t="s">
         <v>212</v>
       </c>
-      <c r="O5" s="55">
+      <c r="O5" s="96">
         <f>Financials!G20</f>
         <v>-150799000</v>
       </c>
-      <c r="P5" s="43"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56">
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+    </row>
+    <row r="6" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="62">
         <f>O20/F10</f>
-        <v>18.743744727272727</v>
-      </c>
-      <c r="B6" s="45" t="s">
+        <v>22.296112727272728</v>
+      </c>
+      <c r="B6" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="C6" s="46">
-        <f>Financials!G190</f>
-        <v>0.25560583993580116</v>
-      </c>
-      <c r="D6" s="57" t="s">
+      <c r="C6" s="36">
+        <f>F17</f>
+        <v>0.19745454545454547</v>
+      </c>
+      <c r="D6" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="36">
         <f>Financials!G33/Financials!G126</f>
         <v>-0.16243150774778053</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="56">
         <f>Financials!G96+Financials!G105</f>
         <v>296852000</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I6" s="57">
         <f>N25</f>
-        <v>0.10644208345899692</v>
-      </c>
-      <c r="J6" s="49" t="s">
+        <v>0.10869545094705529</v>
+      </c>
+      <c r="J6" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="63">
         <f>I5/G4</f>
-        <v>76.376392387716621</v>
-      </c>
-      <c r="L6" s="60" t="s">
+        <v>84.771671422962015</v>
+      </c>
+      <c r="L6" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="M6" s="43"/>
-      <c r="N6" s="61" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="95" t="s">
         <v>218</v>
       </c>
-      <c r="O6" s="62">
+      <c r="O6" s="96">
         <f>Financials!G96</f>
         <v>33846000</v>
       </c>
-      <c r="P6" s="43"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63">
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+    </row>
+    <row r="7" spans="1:19" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="65">
         <f>O20/F12</f>
-        <v>204.54483333333334</v>
-      </c>
-      <c r="B7" s="64" t="s">
+        <v>243.31075396825398</v>
+      </c>
+      <c r="B7" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="65">
-        <f>F14/A3</f>
-        <v>1.0534423527825952E-2</v>
+      <c r="C7" s="67">
+        <f>F15/A3</f>
+        <v>8.8560076758590293E-3</v>
       </c>
       <c r="D7" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="68">
         <f>(Financials!G16*(1-0.25))/(Financials!G126+Financials!G105+Financials!G96)</f>
         <v>-0.13463804532518664</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="69">
         <f>(Financials!G96+Financials!G105)/Financials!G126</f>
         <v>5.6028554457934698E-2</v>
       </c>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="71">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="71" t="s">
+      <c r="J7" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="K7" s="72">
+      <c r="K7" s="73">
         <f>K6/K5-1</f>
-        <v>-0.51147248056980543</v>
-      </c>
-      <c r="L7" s="73" t="s">
+        <v>-0.544140291337051</v>
+      </c>
+      <c r="L7" s="74" t="s">
         <v>223</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="61" t="s">
+      <c r="M7" s="34"/>
+      <c r="N7" s="95" t="s">
         <v>224</v>
       </c>
-      <c r="O7" s="62">
+      <c r="O7" s="96">
         <f>Financials!G105</f>
         <v>263006000</v>
       </c>
-      <c r="P7" s="43"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="74"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="75" t="s">
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+    </row>
+    <row r="8" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="37"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="97" t="s">
         <v>205</v>
       </c>
-      <c r="O8" s="76">
+      <c r="O8" s="98">
         <f>O5/(O6+O7)</f>
         <v>-0.50799388247342114</v>
       </c>
-      <c r="P8" s="43"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="77"/>
-      <c r="B9" s="78">
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+    </row>
+    <row r="9" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="75"/>
+      <c r="B9" s="76">
         <v>2020</v>
       </c>
-      <c r="C9" s="78">
+      <c r="C9" s="76">
         <v>2021</v>
       </c>
-      <c r="D9" s="78">
+      <c r="D9" s="76">
         <v>2022</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="77">
         <v>2023</v>
       </c>
-      <c r="F9" s="79">
+      <c r="F9" s="78">
         <v>2024</v>
       </c>
-      <c r="G9" s="80">
+      <c r="G9" s="79">
         <v>2025</v>
       </c>
-      <c r="H9" s="80">
+      <c r="H9" s="79">
         <v>2026</v>
       </c>
-      <c r="I9" s="80">
+      <c r="I9" s="79">
         <v>2027</v>
       </c>
       <c r="J9" s="80">
         <v>2028</v>
       </c>
-      <c r="K9" s="81"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="61" t="s">
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="95" t="s">
         <v>225</v>
       </c>
-      <c r="O9" s="62">
+      <c r="O9" s="96">
         <f>Financials!G25</f>
         <v>-5945000</v>
       </c>
-      <c r="P9" s="43"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="83" t="s">
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+    </row>
+    <row r="10" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="B10" s="84">
+      <c r="B10" s="82">
         <v>264748000</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="82">
         <v>592049000</v>
       </c>
-      <c r="D10" s="84">
+      <c r="D10" s="82">
         <v>1219327000</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="83">
         <v>2065659000</v>
       </c>
-      <c r="F10" s="85">
+      <c r="F10" s="82">
         <v>2750000000</v>
       </c>
-      <c r="G10" s="84">
+      <c r="G10" s="82">
         <v>3606000000</v>
       </c>
-      <c r="H10" s="84">
+      <c r="H10" s="82">
         <v>4751000000</v>
       </c>
-      <c r="I10" s="84">
+      <c r="I10" s="82">
         <v>6537000000</v>
       </c>
-      <c r="J10" s="84">
-        <v>8543000000</v>
-      </c>
-      <c r="K10" s="86" t="s">
+      <c r="J10" s="83">
+        <v>8600000000</v>
+      </c>
+      <c r="K10" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="N10" s="61" t="s">
+      <c r="L10" s="38"/>
+      <c r="N10" s="95" t="s">
         <v>228</v>
       </c>
-      <c r="O10" s="62">
+      <c r="O10" s="96">
         <f>Financials!G24</f>
         <v>-868255000</v>
       </c>
-      <c r="P10" s="43"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="87"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88">
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+    </row>
+    <row r="11" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="85"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>1.2362737395561063</v>
       </c>
-      <c r="D11" s="88">
+      <c r="D11" s="39">
         <f t="shared" si="0"/>
         <v>1.0595035208234456</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="39">
         <f t="shared" si="0"/>
         <v>0.69409764566847132</v>
       </c>
-      <c r="F11" s="89">
+      <c r="F11" s="40">
         <f t="shared" si="0"/>
         <v>0.33129427461163719</v>
       </c>
-      <c r="G11" s="88">
+      <c r="G11" s="39">
         <f t="shared" si="0"/>
         <v>0.31127272727272737</v>
       </c>
-      <c r="H11" s="88">
+      <c r="H11" s="39">
         <f t="shared" si="0"/>
         <v>0.31752634498058785</v>
       </c>
-      <c r="I11" s="88">
+      <c r="I11" s="39">
         <f t="shared" si="0"/>
         <v>0.37592085876657544</v>
       </c>
-      <c r="J11" s="88">
+      <c r="J11" s="86">
         <f t="shared" si="0"/>
-        <v>0.30686859415634093</v>
-      </c>
-      <c r="K11" s="90">
+        <v>0.31558819030136154</v>
+      </c>
+      <c r="K11" s="86">
         <f>SUM(F11:J11)/5</f>
-        <v>0.32857655995757373</v>
-      </c>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="61" t="s">
+        <v>0.33032047918657786</v>
+      </c>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="O11" s="91">
+      <c r="O11" s="99">
         <f>O9/O10</f>
         <v>6.8470668179279126E-3</v>
       </c>
-      <c r="P11" s="43"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="83" t="s">
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+    </row>
+    <row r="12" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="82">
         <v>-348535000</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="82">
         <v>-539102000</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="82">
         <v>-679948000</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="82">
         <v>-796705000</v>
       </c>
-      <c r="F12" s="85">
+      <c r="F12" s="87">
         <v>252000000</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="82">
         <v>372000000</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="82">
         <v>590000000</v>
       </c>
-      <c r="I12" s="84">
+      <c r="I12" s="82">
         <v>516000000</v>
       </c>
-      <c r="J12" s="84">
+      <c r="J12" s="83">
         <v>792000000</v>
       </c>
-      <c r="K12" s="86" t="s">
+      <c r="K12" s="88" t="s">
         <v>230</v>
       </c>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="92" t="s">
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="O12" s="93">
+      <c r="O12" s="99">
         <f>O8*(1-O11)</f>
         <v>-0.50451561441702697</v>
       </c>
-      <c r="P12" s="43"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="87"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88">
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+    </row>
+    <row r="13" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="85"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>0.54676574805973566</v>
       </c>
-      <c r="D13" s="88">
+      <c r="D13" s="39">
         <f t="shared" si="1"/>
         <v>0.26126039228198006</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="39">
         <f t="shared" si="1"/>
         <v>0.17171460170483632</v>
       </c>
-      <c r="F13" s="89">
+      <c r="F13" s="40">
         <f t="shared" si="1"/>
         <v>-1.3163027720423495</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="39">
         <f t="shared" si="1"/>
         <v>0.47619047619047628</v>
       </c>
-      <c r="H13" s="88">
+      <c r="H13" s="39">
         <f t="shared" si="1"/>
         <v>0.58602150537634401</v>
       </c>
-      <c r="I13" s="88">
+      <c r="I13" s="39">
         <f t="shared" si="1"/>
         <v>-0.12542372881355934</v>
       </c>
-      <c r="J13" s="88">
+      <c r="J13" s="86">
         <f t="shared" si="1"/>
         <v>0.53488372093023262</v>
       </c>
-      <c r="K13" s="90">
-        <f>SUM(F13:J13)/5</f>
-        <v>3.1073840328228818E-2</v>
-      </c>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="116" t="s">
+      <c r="K13" s="86">
+        <f>AVERAGE(G13:J13)</f>
+        <v>0.36791799342087339</v>
+      </c>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="115" t="s">
         <v>232</v>
       </c>
-      <c r="O13" s="117"/>
-      <c r="P13" s="43"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="83" t="s">
+      <c r="O13" s="116"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+    </row>
+    <row r="14" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="41">
+        <f>B12/B10</f>
+        <v>-1.3164783114508891</v>
+      </c>
+      <c r="C14" s="41">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>-0.91056990215336908</v>
+      </c>
+      <c r="D14" s="41">
+        <f t="shared" si="2"/>
+        <v>-0.5576420435207291</v>
+      </c>
+      <c r="E14" s="41">
+        <f t="shared" si="2"/>
+        <v>-0.38569047456525979</v>
+      </c>
+      <c r="F14" s="42">
+        <f t="shared" si="2"/>
+        <v>9.1636363636363641E-2</v>
+      </c>
+      <c r="G14" s="41">
+        <f t="shared" si="2"/>
+        <v>0.10316139767054909</v>
+      </c>
+      <c r="H14" s="41">
+        <f t="shared" si="2"/>
+        <v>0.12418438223531889</v>
+      </c>
+      <c r="I14" s="41">
+        <f t="shared" si="2"/>
+        <v>7.8935291418081685E-2</v>
+      </c>
+      <c r="J14" s="43">
+        <f t="shared" si="2"/>
+        <v>9.2093023255813949E-2</v>
+      </c>
+      <c r="K14" s="43"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="O14" s="99">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+    </row>
+    <row r="15" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B15" s="82">
         <v>-195141000</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C15" s="82">
         <v>-88828000</v>
       </c>
-      <c r="D14" s="84">
+      <c r="D15" s="82">
         <v>69624000</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E15" s="82">
         <v>519811000</v>
       </c>
-      <c r="F14" s="85">
+      <c r="F15" s="87">
         <v>543000000</v>
       </c>
-      <c r="G14" s="84">
+      <c r="G15" s="82">
         <v>760000000</v>
       </c>
-      <c r="H14" s="84">
+      <c r="H15" s="82">
         <v>1121000000</v>
       </c>
-      <c r="I14" s="84">
+      <c r="I15" s="82">
         <v>1881000000</v>
       </c>
-      <c r="J14" s="84">
-        <v>2756000000</v>
-      </c>
-      <c r="K14" s="86" t="s">
+      <c r="J15" s="83">
+        <v>2823000000</v>
+      </c>
+      <c r="K15" s="88" t="s">
         <v>233</v>
       </c>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="61" t="s">
-        <v>234</v>
-      </c>
-      <c r="O14" s="91">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
-      </c>
-      <c r="P14" s="43"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="94"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="95" t="s">
+        <v>235</v>
+      </c>
+      <c r="O15" s="100" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>1.67</v>
+      </c>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+    </row>
+    <row r="16" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="89"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>-0.54480093880834879</v>
       </c>
-      <c r="D15" s="88">
-        <f t="shared" si="2"/>
+      <c r="D16" s="39">
+        <f t="shared" si="3"/>
         <v>-1.7838069077317962</v>
       </c>
-      <c r="E15" s="88">
-        <f t="shared" si="2"/>
+      <c r="E16" s="39">
+        <f t="shared" si="3"/>
         <v>6.4659743766517295</v>
       </c>
-      <c r="F15" s="89">
-        <f t="shared" si="2"/>
+      <c r="F16" s="40">
+        <f t="shared" si="3"/>
         <v>4.4610444950183847E-2</v>
       </c>
-      <c r="G15" s="88">
-        <f t="shared" si="2"/>
+      <c r="G16" s="39">
+        <f t="shared" si="3"/>
         <v>0.39963167587476978</v>
       </c>
-      <c r="H15" s="88">
-        <f t="shared" si="2"/>
+      <c r="H16" s="39">
+        <f t="shared" si="3"/>
         <v>0.47500000000000009</v>
       </c>
-      <c r="I15" s="88">
-        <f t="shared" si="2"/>
+      <c r="I16" s="39">
+        <f t="shared" si="3"/>
         <v>0.67796610169491522</v>
       </c>
-      <c r="J15" s="88">
-        <f t="shared" si="2"/>
-        <v>0.46517809675704402</v>
-      </c>
-      <c r="K15" s="90">
-        <f>SUM(F15:J15)/5</f>
-        <v>0.41247726385538258</v>
-      </c>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="O15" s="95" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.6779999999999999</v>
-      </c>
-      <c r="P15" s="43"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="96">
-        <v>0.80531949983507756</v>
-      </c>
-      <c r="C16" s="96">
-        <v>-7.9352677529387239E-2</v>
-      </c>
-      <c r="D16" s="96">
-        <v>-0.10204416762981362</v>
-      </c>
-      <c r="E16" s="96">
-        <v>-0.11043183603300052</v>
-      </c>
-      <c r="F16" s="97"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="61" t="s">
+      <c r="J16" s="86">
+        <f t="shared" si="3"/>
+        <v>0.50079744816586924</v>
+      </c>
+      <c r="K16" s="86">
+        <f>SUM(F16:J16)/5</f>
+        <v>0.41960113413714761</v>
+      </c>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="95" t="s">
         <v>236</v>
       </c>
-      <c r="O16" s="91">
+      <c r="O16" s="99">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="P16" s="43"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="82"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+    </row>
+    <row r="17" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="106" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="41">
+        <f>B15/B10</f>
+        <v>-0.73708205538852045</v>
+      </c>
+      <c r="C17" s="41">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>-0.15003487886982328</v>
+      </c>
+      <c r="D17" s="41">
+        <f t="shared" si="4"/>
+        <v>5.7100351259342243E-2</v>
+      </c>
+      <c r="E17" s="43">
+        <f t="shared" si="4"/>
+        <v>0.2516441484291454</v>
+      </c>
+      <c r="F17" s="41">
+        <f t="shared" si="4"/>
+        <v>0.19745454545454547</v>
+      </c>
+      <c r="G17" s="41">
+        <f t="shared" si="4"/>
+        <v>0.21075984470327233</v>
+      </c>
+      <c r="H17" s="41">
+        <f t="shared" si="4"/>
+        <v>0.23595032624710588</v>
+      </c>
+      <c r="I17" s="41">
+        <f t="shared" si="4"/>
+        <v>0.2877466727856815</v>
+      </c>
+      <c r="J17" s="43">
+        <f t="shared" si="4"/>
+        <v>0.32825581395348835</v>
+      </c>
+      <c r="K17" s="43"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
       <c r="N17" s="101" t="s">
         <v>232</v>
       </c>
       <c r="O17" s="102">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.10996062000000001</v>
-      </c>
-      <c r="P17" s="43"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="116" t="s">
+        <v>0.11166430000000001</v>
+      </c>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+    </row>
+    <row r="18" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="90" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="91">
+        <v>0.80531949983507756</v>
+      </c>
+      <c r="C18" s="91">
+        <v>-7.9352677529387239E-2</v>
+      </c>
+      <c r="D18" s="91">
+        <v>-0.10204416762981362</v>
+      </c>
+      <c r="E18" s="91">
+        <v>-0.11043183603300052</v>
+      </c>
+      <c r="F18" s="92"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="115" t="s">
         <v>237</v>
       </c>
-      <c r="O18" s="117"/>
-      <c r="P18" s="43"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="107" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="B19" s="107"/>
-      <c r="C19" s="118" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2012</v>
-      </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="82" t="s">
+      <c r="O18" s="116"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+    </row>
+    <row r="19" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="61" t="s">
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="95" t="s">
         <v>215</v>
       </c>
-      <c r="O19" s="104">
+      <c r="O19" s="103">
         <f>O6+O7</f>
         <v>296852000</v>
       </c>
-      <c r="P19" s="43"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="107" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+    </row>
+    <row r="20" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="95" t="s">
+        <v>193</v>
+      </c>
+      <c r="O20" s="103">
+        <f>A3</f>
+        <v>61314310000</v>
+      </c>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+    </row>
+    <row r="21" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="118" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="119" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2012</v>
+      </c>
+      <c r="E21" s="119"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="95" t="s">
+        <v>239</v>
+      </c>
+      <c r="O21" s="103">
+        <f>O19+O20</f>
+        <v>61611162000</v>
+      </c>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+    </row>
+    <row r="22" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="117" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Snowflake Inc. is a Data Cloud company. The Company’s platform is the technology that powers the Data Cloud, enabling customers to consolidate data into a single source of truth to drive meaningful business insights, build data applications, and share data and data products. Its platform unifies data and supports a variety of workloads, including data warehousing, data lakes, and Unistore, as well as collaboration, data engineering, cybersecurity, data science and machine learning, and application development. The Company has developed technology across its platform, including managed service, storage, query capabilities, compute model, data sharing, global infrastructure, and integrated security. The Company also provides frictionless and governed data access so users can securely share data inside and outside of their organizations, generally without copying or moving the underlying data.</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="O20" s="104">
-        <f>A3</f>
-        <v>51545298000</v>
-      </c>
-      <c r="P20" s="43"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="107"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="61" t="s">
-        <v>239</v>
-      </c>
-      <c r="O21" s="104">
-        <f>O19+O20</f>
-        <v>51842150000</v>
-      </c>
-      <c r="P21" s="43"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="107"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="75" t="s">
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="O22" s="105">
+      <c r="O22" s="104">
         <f>(O19/O21)</f>
-        <v>5.7260742465349143E-3</v>
-      </c>
-      <c r="P22" s="43"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="107"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
+        <v>4.8181529184598074E-3</v>
+      </c>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+    </row>
+    <row r="23" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="117"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
       <c r="N23" s="101" t="s">
         <v>241</v>
       </c>
-      <c r="O23" s="106">
+      <c r="O23" s="105">
         <f>O20/O21</f>
-        <v>0.99427392575346507</v>
-      </c>
-      <c r="P23" s="43"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="107"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="108" t="s">
+        <v>0.99518184708154023</v>
+      </c>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+    </row>
+    <row r="24" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="117"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="107" t="s">
         <v>242</v>
       </c>
-      <c r="O24" s="109"/>
-      <c r="P24" s="43"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="107"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="110">
+      <c r="O24" s="108"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+    </row>
+    <row r="25" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="117"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="109">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.10644208345899692</v>
-      </c>
-      <c r="O25" s="111"/>
-      <c r="P25" s="43"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="107"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="107"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="82"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="82"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="82"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="82"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="82"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="82"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="82"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="82"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="82"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="82"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="82"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
-      <c r="O41" s="82"/>
-      <c r="P41" s="82"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="82"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="82"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="82"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
-      <c r="P43" s="82"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="82"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
-      <c r="P44" s="82"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="82"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="82"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-      <c r="O46" s="82"/>
-      <c r="P46" s="82"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="82"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="82"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="82"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="82"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="82"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="82"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="O51" s="82"/>
-      <c r="P51" s="82"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="82"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="82"/>
-      <c r="O52" s="82"/>
-      <c r="P52" s="82"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="82"/>
-      <c r="B53" s="82"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="82"/>
-      <c r="J53" s="82"/>
-      <c r="K53" s="82"/>
-      <c r="L53" s="82"/>
-      <c r="M53" s="82"/>
-      <c r="N53" s="82"/>
-      <c r="O53" s="82"/>
-      <c r="P53" s="82"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="82"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="82"/>
-      <c r="L54" s="82"/>
-      <c r="M54" s="82"/>
-      <c r="N54" s="82"/>
-      <c r="O54" s="82"/>
-      <c r="P54" s="82"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="82"/>
-      <c r="B55" s="82"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="82"/>
-      <c r="I55" s="82"/>
-      <c r="J55" s="82"/>
-      <c r="K55" s="82"/>
-      <c r="L55" s="82"/>
-      <c r="M55" s="82"/>
-      <c r="N55" s="82"/>
-      <c r="O55" s="82"/>
-      <c r="P55" s="82"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="82"/>
-      <c r="B56" s="82"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="82"/>
-      <c r="J56" s="82"/>
-      <c r="K56" s="82"/>
-      <c r="L56" s="82"/>
-      <c r="M56" s="82"/>
-      <c r="N56" s="82"/>
-      <c r="O56" s="82"/>
-      <c r="P56" s="82"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="82"/>
-      <c r="B57" s="82"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="82"/>
-      <c r="I57" s="82"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="82"/>
-      <c r="L57" s="82"/>
-      <c r="M57" s="82"/>
-      <c r="N57" s="82"/>
-      <c r="O57" s="82"/>
-      <c r="P57" s="82"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="82"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="82"/>
-      <c r="I58" s="82"/>
-      <c r="J58" s="82"/>
-      <c r="K58" s="82"/>
-      <c r="L58" s="82"/>
-      <c r="M58" s="82"/>
-      <c r="N58" s="82"/>
-      <c r="O58" s="82"/>
-      <c r="P58" s="82"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="82"/>
-      <c r="B59" s="82"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="82"/>
-      <c r="I59" s="82"/>
-      <c r="J59" s="82"/>
-      <c r="K59" s="82"/>
-      <c r="L59" s="82"/>
-      <c r="M59" s="82"/>
-      <c r="N59" s="82"/>
-      <c r="O59" s="82"/>
-      <c r="P59" s="82"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="82"/>
-      <c r="B60" s="82"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="82"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="82"/>
-      <c r="L60" s="82"/>
-      <c r="M60" s="82"/>
-      <c r="N60" s="82"/>
-      <c r="O60" s="82"/>
-      <c r="P60" s="82"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="82"/>
-      <c r="B61" s="82"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="82"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="82"/>
-      <c r="J61" s="82"/>
-      <c r="K61" s="82"/>
-      <c r="L61" s="82"/>
-      <c r="M61" s="82"/>
-      <c r="N61" s="82"/>
-      <c r="O61" s="82"/>
-      <c r="P61" s="82"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="43"/>
-      <c r="P62" s="43"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
+        <v>0.10869545094705529</v>
+      </c>
+      <c r="O25" s="110"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+    </row>
+    <row r="26" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="117"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+    </row>
+    <row r="27" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="117"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+    </row>
+    <row r="28" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="117"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+    </row>
+    <row r="29" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="117"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+    </row>
+    <row r="30" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="117"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="38"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="38"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="43"/>
-      <c r="P67" s="43"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="43"/>
-      <c r="P69" s="43"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="43"/>
-      <c r="P70" s="43"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="43"/>
-      <c r="P71" s="43"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="43"/>
-      <c r="P72" s="43"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="43"/>
-      <c r="P73" s="43"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="43"/>
-      <c r="P75" s="43"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="43"/>
-      <c r="P76" s="43"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="43"/>
-      <c r="P77" s="43"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="43"/>
-      <c r="P79" s="43"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="43"/>
-      <c r="P80" s="43"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="43"/>
-      <c r="P81" s="43"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="43"/>
-      <c r="P82" s="43"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="43"/>
-      <c r="P83" s="43"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="34"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="43"/>
-      <c r="P84" s="43"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="43"/>
-      <c r="P85" s="43"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="34"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="43"/>
-      <c r="P86" s="43"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="34"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="43"/>
-      <c r="P87" s="43"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="43"/>
-      <c r="P88" s="43"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="43"/>
-      <c r="P89" s="43"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="43"/>
-      <c r="P90" s="43"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="43"/>
-      <c r="P91" s="43"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="34"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="43"/>
-      <c r="P92" s="43"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="43"/>
-      <c r="P93" s="43"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="34"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="43"/>
-      <c r="P94" s="43"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="34"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="43"/>
-      <c r="P95" s="43"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="34"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="43"/>
-      <c r="P96" s="43"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="34"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="43"/>
-      <c r="P97" s="43"/>
+      <c r="O97" s="34"/>
+      <c r="P97" s="34"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="43"/>
-      <c r="P98" s="43"/>
+      <c r="O98" s="34"/>
+      <c r="P98" s="34"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="43"/>
-      <c r="P99" s="43"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="34"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="43"/>
-      <c r="P100" s="43"/>
+      <c r="O100" s="34"/>
+      <c r="P100" s="34"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="43"/>
-      <c r="P101" s="43"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="34"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="43"/>
-      <c r="P102" s="43"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="34"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="43"/>
-      <c r="P103" s="43"/>
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="43"/>
-      <c r="P104" s="43"/>
+      <c r="O104" s="34"/>
+      <c r="P104" s="34"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="43"/>
-      <c r="P105" s="43"/>
+      <c r="O105" s="34"/>
+      <c r="P105" s="34"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="43"/>
-      <c r="P106" s="43"/>
+      <c r="O106" s="34"/>
+      <c r="P106" s="34"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="43"/>
-      <c r="P107" s="43"/>
+      <c r="O107" s="34"/>
+      <c r="P107" s="34"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="43"/>
-      <c r="P108" s="43"/>
+      <c r="O108" s="34"/>
+      <c r="P108" s="34"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="43"/>
-      <c r="P109" s="43"/>
+      <c r="O109" s="34"/>
+      <c r="P109" s="34"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="43"/>
-      <c r="P110" s="43"/>
+      <c r="O110" s="34"/>
+      <c r="P110" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -10878,8 +11290,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A22:E30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:SNOW/explorer/revenue_proj" xr:uid="{F9363E3B-4B29-9E48-88C8-C2D10302F4B7}"/>

--- a/Technology/Software/Snowflake.xlsx
+++ b/Technology/Software/Snowflake.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D813AA99-CB74-B240-A920-B6D42818ADCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B4D1F6-9D30-DF40-8A91-EBADCAABC937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1704,10 +1704,12 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1727,7 +1729,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1740,6 +1742,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1867,11 +1871,11 @@
     <v>Powered by Refinitiv</v>
     <v>193.94</v>
     <v>119.27</v>
-    <v>1.67</v>
-    <v>-1.72</v>
-    <v>-9.1649999999999995E-3</v>
-    <v>-0.42</v>
-    <v>-2.258E-3</v>
+    <v>1.6479999999999999</v>
+    <v>3.32</v>
+    <v>1.7725000000000001E-2</v>
+    <v>0.13</v>
+    <v>6.8180000000000009E-4</v>
     <v>USD</v>
     <v>Snowflake Inc. is a Data Cloud company. The Company’s platform is the technology that powers the Data Cloud, enabling customers to consolidate data into a single source of truth to drive meaningful business insights, build data applications, and share data and data products. Its platform unifies data and supports a variety of workloads, including data warehousing, data lakes, and Unistore, as well as collaboration, data engineering, cybersecurity, data science and machine learning, and application development. The Company has developed technology across its platform, including managed service, storage, query capabilities, compute model, data sharing, global infrastructure, and integrated security. The Company also provides frictionless and governed data access so users can securely share data inside and outside of their organizations, generally without copying or moving the underlying data.</v>
     <v>5884</v>
@@ -1879,24 +1883,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>106 East Babcock Street, Suite 3A, BOZEMAN, MT, 59715 US</v>
-    <v>188.56</v>
+    <v>191.64</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45261.895147048439</v>
+    <v>45269.04109766172</v>
     <v>0</v>
-    <v>180.8</v>
-    <v>61314310000</v>
+    <v>185.8</v>
+    <v>62787630000</v>
     <v>SNOWFLAKE INC.</v>
     <v>SNOWFLAKE INC.</v>
-    <v>185.25</v>
-    <v>187.68</v>
-    <v>185.96</v>
-    <v>185.55</v>
-    <v>329700000</v>
+    <v>187</v>
+    <v>187.31</v>
+    <v>190.63</v>
+    <v>190.8</v>
+    <v>329300000</v>
     <v>SNOW</v>
     <v>SNOWFLAKE INC. (XNYS:SNOW)</v>
-    <v>10315162</v>
-    <v>5138894</v>
+    <v>5294921</v>
+    <v>5789149</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -9311,8 +9315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A88BB22-8852-D847-B385-5A40321F64CA}">
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9361,7 +9365,7 @@
     <row r="3" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="44" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>61314310000</v>
+        <v>62787630000</v>
       </c>
       <c r="B3" s="45" t="s">
         <v>193</v>
@@ -9381,15 +9385,15 @@
         <v>195</v>
       </c>
       <c r="G3" s="48">
-        <f>AVERAGE(Financials!F129:K129)</f>
-        <v>7.1913932624784E-3</v>
+        <f>AVERAGE(Financials!F129:J129)</f>
+        <v>8.5756530329194058E-3</v>
       </c>
       <c r="H3" s="47" t="s">
         <v>196</v>
       </c>
       <c r="I3" s="49">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>34572667537.575478</v>
+        <v>34517956594.026787</v>
       </c>
       <c r="J3" s="50" t="s">
         <v>197</v>
@@ -9435,21 +9439,21 @@
       </c>
       <c r="G4" s="56">
         <f>A5*(1+(5*G3))</f>
-        <v>341555011.79319566</v>
+        <v>343419812.71870178</v>
       </c>
       <c r="H4" s="55" t="s">
         <v>202</v>
       </c>
       <c r="I4" s="35">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>25498908232.598698</v>
+        <v>25451820294.305889</v>
       </c>
       <c r="J4" s="55" t="s">
         <v>203</v>
       </c>
       <c r="K4" s="57" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-9.1649999999999995E-3</v>
+        <v>1.7725000000000001E-2</v>
       </c>
       <c r="L4" s="58" t="s">
         <v>244</v>
@@ -9467,7 +9471,7 @@
     <row r="5" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="53" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>329700000</v>
+        <v>329300000</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>206</v>
@@ -9495,14 +9499,14 @@
       </c>
       <c r="I5" s="35">
         <f>I4+G5-G6</f>
-        <v>28954189232.598698</v>
+        <v>28907101294.305889</v>
       </c>
       <c r="J5" s="55" t="s">
         <v>210</v>
       </c>
       <c r="K5" s="60" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>185.96</v>
+        <v>190.63</v>
       </c>
       <c r="L5" s="61" t="s">
         <v>211</v>
@@ -9523,7 +9527,7 @@
     <row r="6" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="62">
         <f>O20/F10</f>
-        <v>22.296112727272728</v>
+        <v>22.831865454545454</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>213</v>
@@ -9551,14 +9555,14 @@
       </c>
       <c r="I6" s="57">
         <f>N25</f>
-        <v>0.10869545094705529</v>
+        <v>0.10882810819400367</v>
       </c>
       <c r="J6" s="55" t="s">
         <v>216</v>
       </c>
       <c r="K6" s="63">
         <f>I5/G4</f>
-        <v>84.771671422962015</v>
+        <v>84.174238712266586</v>
       </c>
       <c r="L6" s="64" t="s">
         <v>217</v>
@@ -9579,14 +9583,14 @@
     <row r="7" spans="1:19" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65">
         <f>O20/F12</f>
-        <v>243.31075396825398</v>
+        <v>249.1572619047619</v>
       </c>
       <c r="B7" s="66" t="s">
         <v>219</v>
       </c>
       <c r="C7" s="67">
         <f>F15/A3</f>
-        <v>8.8560076758590293E-3</v>
+        <v>8.6482002904075209E-3</v>
       </c>
       <c r="D7" s="66" t="s">
         <v>220</v>
@@ -9613,7 +9617,7 @@
       </c>
       <c r="K7" s="73">
         <f>K6/K5-1</f>
-        <v>-0.544140291337051</v>
+        <v>-0.5584418050030604</v>
       </c>
       <c r="L7" s="74" t="s">
         <v>223</v>
@@ -9947,7 +9951,7 @@
       </c>
       <c r="O14" s="99">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="34"/>
       <c r="Q14" s="34"/>
@@ -9995,7 +9999,7 @@
       </c>
       <c r="O15" s="100" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.67</v>
+        <v>1.6479999999999999</v>
       </c>
       <c r="P15" s="34"/>
       <c r="Q15" s="34"/>
@@ -10102,7 +10106,7 @@
       </c>
       <c r="O17" s="102">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.11166430000000001</v>
+        <v>0.11172792000000001</v>
       </c>
       <c r="P17" s="34"/>
       <c r="Q17" s="34"/>
@@ -10189,7 +10193,7 @@
       </c>
       <c r="O20" s="103">
         <f>A3</f>
-        <v>61314310000</v>
+        <v>62787630000</v>
       </c>
       <c r="P20" s="34"/>
       <c r="Q20" s="34"/>
@@ -10220,7 +10224,7 @@
       </c>
       <c r="O21" s="103">
         <f>O19+O20</f>
-        <v>61611162000</v>
+        <v>63084482000</v>
       </c>
       <c r="P21" s="34"/>
       <c r="Q21" s="34"/>
@@ -10249,7 +10253,7 @@
       </c>
       <c r="O22" s="104">
         <f>(O19/O21)</f>
-        <v>4.8181529184598074E-3</v>
+        <v>4.7056263377101204E-3</v>
       </c>
       <c r="P22" s="34"/>
       <c r="Q22" s="34"/>
@@ -10275,7 +10279,7 @@
       </c>
       <c r="O23" s="105">
         <f>O20/O21</f>
-        <v>0.99518184708154023</v>
+        <v>0.9952943736622899</v>
       </c>
       <c r="P23" s="34"/>
       <c r="Q23" s="34"/>
@@ -10321,7 +10325,7 @@
       <c r="M25" s="38"/>
       <c r="N25" s="109">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.10869545094705529</v>
+        <v>0.10882810819400367</v>
       </c>
       <c r="O25" s="110"/>
       <c r="P25" s="34"/>
